--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1092688.945040767</v>
+        <v>1089424.434049303</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19157290.55871684</v>
+        <v>19157290.55871686</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5355856.973588229</v>
+        <v>5355856.973588226</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6770394.014636721</v>
+        <v>6770394.014636723</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>8.094529853985728</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.97556198614117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -749,17 +749,17 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>8.981353179542184</v>
       </c>
       <c r="T3" t="n">
-        <v>8.981353179542184</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>8.981353179542184</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.981353179542184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>8.094529853985728</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.97556198614117</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>10.19681332827224</v>
       </c>
       <c r="V6" t="n">
-        <v>10.19681332827224</v>
+        <v>8.981353179542182</v>
       </c>
       <c r="W6" t="n">
-        <v>8.981353179542182</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="E7" t="n">
-        <v>8.981353179542184</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>8.981353179542184</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>8.094529853985728</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
@@ -1147,7 +1147,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="G8" t="n">
-        <v>6.616563252237277</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>8.981353179542184</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8.981353179542184</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>10.19681332827224</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8.981353179542184</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="E10" t="n">
-        <v>8.981353179542184</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F10" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>27.07779821935566</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.8784506833301</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.7486912428066</v>
       </c>
       <c r="I11" t="n">
         <v>17.53751371401025</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.76414304905926</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>26.43783649953349</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1530,13 +1530,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>8.941319728495612</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
@@ -1545,7 +1545,7 @@
         <v>164.7872676502541</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.0820544229444</v>
       </c>
       <c r="I13" t="n">
         <v>91.40650043199959</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.87086283623562</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>170.7495085543533</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.7751500755627</v>
@@ -1587,16 +1587,16 @@
         <v>279.927041278603</v>
       </c>
       <c r="V13" t="n">
-        <v>84.55606912787063</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.8784506833301</v>
+        <v>193.271244008923</v>
       </c>
       <c r="H14" t="n">
-        <v>257.5434353874091</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>17.53751371401025</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>93.76414304905926</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.2688540365515</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3488827764637</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.7872676502541</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.0820544229444</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.40650043199959</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.87086283623562</v>
       </c>
       <c r="S16" t="n">
         <v>170.7495085543533</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2960927577983</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.927041278603</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>173.1190043563432</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -1849,22 +1849,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>402.8784506833301</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>240.2612093379607</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>17.53751371401025</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>255.4569711715027</v>
       </c>
     </row>
     <row r="18">
@@ -2010,19 +2010,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.7872676502541</v>
+        <v>54.72789936529989</v>
       </c>
       <c r="H19" t="n">
         <v>141.0820544229444</v>
       </c>
       <c r="I19" t="n">
-        <v>91.40650043199959</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>170.7495085543533</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.7751500755627</v>
       </c>
       <c r="U19" t="n">
-        <v>43.7570829325954</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>289.7486912428066</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>17.53751371401025</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.2688540365515</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3488827764637</v>
       </c>
       <c r="V20" t="n">
-        <v>285.9684731870966</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>275.259063031323</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>84.77256450294331</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2253,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.7872676502541</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>141.0820544229444</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>91.40650043199959</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.785812344552246</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>170.7495085543533</v>
       </c>
       <c r="T22" t="n">
-        <v>233.7751500755627</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.927041278603</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2335,7 +2335,7 @@
         <v>402.8784506833301</v>
       </c>
       <c r="H23" t="n">
-        <v>289.7486912428066</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>17.53751371401025</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.76414304905926</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.2688540365515</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3488827764637</v>
+        <v>64.2618150672207</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>203.2501021764644</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2487,13 +2487,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>161.1058641591924</v>
+        <v>164.7872676502541</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.0820544229444</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>48.87086283623562</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>170.7495085543533</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>69.74787293579254</v>
       </c>
       <c r="U25" t="n">
         <v>279.927041278603</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>193.3665633102464</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>143.3642972796883</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2614,7 +2614,7 @@
         <v>254.3488827764637</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2715,13 +2715,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>68.16525172229908</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>48.87086283623562</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>170.7495085543533</v>
       </c>
       <c r="T28" t="n">
-        <v>43.7570829325963</v>
+        <v>233.7751500755627</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.927041278603</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2806,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>190.7571035237381</v>
+        <v>402.8784506833301</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>17.53751371401025</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>212.2688540365515</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3488827764637</v>
+        <v>24.69002190286157</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2955,13 +2955,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>151.323165842573</v>
       </c>
       <c r="G31" t="n">
         <v>164.7872676502541</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>91.40650043199959</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>170.7495085543533</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>105.4961292331875</v>
+        <v>233.7751500755627</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.927041278603</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>103.0581152484145</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>93.76414304905926</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.2688540365515</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3488827764637</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>384.4436730492704</v>
       </c>
     </row>
     <row r="33">
@@ -3192,16 +3192,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>29.99686430391884</v>
+        <v>71.98015772021935</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.7872676502541</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>48.87086283623562</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>170.7495085543533</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>401.5273790029077</v>
       </c>
       <c r="H35" t="n">
-        <v>48.49665260164787</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>17.53751371401025</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.2688540365515</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3488827764637</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3435,16 +3435,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>104.4703073991181</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.7872676502541</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>141.0820544229444</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>91.40650043199959</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>170.7495085543533</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.7751500755627</v>
       </c>
       <c r="U37" t="n">
-        <v>279.927041278603</v>
+        <v>199.0077826570754</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>245.9608865979369</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.8784506833301</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>17.53751371401025</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3488827764637</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>75.37134395913603</v>
       </c>
     </row>
     <row r="39">
@@ -3666,7 +3666,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3675,7 +3675,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.7872676502541</v>
+        <v>163.291137602543</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>48.87086283623562</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>105.3474319030218</v>
+        <v>233.7751500755627</v>
       </c>
       <c r="U40" t="n">
         <v>279.927041278603</v>
@@ -3726,7 +3726,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>32.03645298171051</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.8784506833301</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>93.76414304905926</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3488827764637</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>322.9597177910381</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.7872676502541</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>141.0820544229444</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>48.87086283623562</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>170.7495085543533</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.7751500755627</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.927041278603</v>
       </c>
       <c r="V43" t="n">
-        <v>6.657487854233858</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>66.95531642986587</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>34.1107317389907</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.8784506833301</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>289.7486912428066</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>17.53751371401025</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>212.2688540365515</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3488827764637</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>145.2802112305116</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.7872676502541</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>141.0820544229444</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>91.40650043199959</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>170.7495085543533</v>
       </c>
       <c r="T46" t="n">
-        <v>233.7751500755627</v>
+        <v>232.622531350953</v>
       </c>
       <c r="U46" t="n">
-        <v>171.059861608186</v>
+        <v>279.927041278603</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4342,16 +4342,16 @@
         <v>10.50271772812041</v>
       </c>
       <c r="N2" t="n">
-        <v>10.50271772812041</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="O2" t="n">
-        <v>20.59756292310993</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="P2" t="n">
-        <v>30.69240811809945</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Q2" t="n">
-        <v>30.69240811809945</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="R2" t="n">
         <v>40.78725331308897</v>
@@ -4363,19 +4363,19 @@
         <v>40.78725331308897</v>
       </c>
       <c r="U2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="V2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="W2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="X2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
     </row>
     <row r="3">
@@ -4397,13 +4397,13 @@
         <v>21.41536795166025</v>
       </c>
       <c r="F3" t="n">
-        <v>11.11555650896102</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="G3" t="n">
         <v>11.11555650896102</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8157450662617793</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="I3" t="n">
         <v>0.8157450662617793</v>
@@ -4412,31 +4412,31 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="K3" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="O3" t="n">
         <v>10.50271772812041</v>
       </c>
-      <c r="L3" t="n">
-        <v>10.50271772812041</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>20.59756292310993</v>
       </c>
-      <c r="N3" t="n">
-        <v>20.59756292310993</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>30.69240811809945</v>
-      </c>
-      <c r="P3" t="n">
-        <v>30.69240811809945</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>40.78725331308897</v>
       </c>
       <c r="R3" t="n">
         <v>40.78725331308897</v>
       </c>
       <c r="S3" t="n">
-        <v>40.78725331308897</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="T3" t="n">
         <v>31.71517939435949</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.11555650896102</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="C4" t="n">
-        <v>11.11555650896102</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="D4" t="n">
-        <v>11.11555650896102</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="E4" t="n">
         <v>11.11555650896102</v>
@@ -4491,22 +4491,22 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="K4" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="L4" t="n">
         <v>10.9105902612513</v>
       </c>
-      <c r="L4" t="n">
-        <v>20.59756292310993</v>
-      </c>
       <c r="M4" t="n">
-        <v>20.59756292310993</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="N4" t="n">
-        <v>20.59756292310993</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="O4" t="n">
-        <v>30.69240811809945</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="P4" t="n">
-        <v>40.78725331308897</v>
+        <v>31.10028065123034</v>
       </c>
       <c r="Q4" t="n">
         <v>40.78725331308897</v>
@@ -4515,22 +4515,22 @@
         <v>40.78725331308897</v>
       </c>
       <c r="S4" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="T4" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="U4" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="V4" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="W4" t="n">
         <v>30.48744187038973</v>
       </c>
       <c r="X4" t="n">
-        <v>30.48744187038973</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="Y4" t="n">
         <v>21.41536795166025</v>
@@ -4573,46 +4573,46 @@
         <v>10.9105902612513</v>
       </c>
       <c r="L5" t="n">
-        <v>20.59756292310993</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="M5" t="n">
-        <v>20.59756292310993</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="N5" t="n">
-        <v>20.59756292310993</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="O5" t="n">
-        <v>20.59756292310993</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="P5" t="n">
+        <v>21.00543545624082</v>
+      </c>
+      <c r="Q5" t="n">
         <v>30.69240811809945</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>40.78725331308897</v>
       </c>
       <c r="R5" t="n">
         <v>40.78725331308897</v>
       </c>
       <c r="S5" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="T5" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="U5" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="V5" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="W5" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="X5" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
     </row>
     <row r="6">
@@ -4649,40 +4649,40 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="K6" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="O6" t="n">
         <v>10.50271772812041</v>
       </c>
-      <c r="L6" t="n">
-        <v>10.50271772812041</v>
-      </c>
-      <c r="M6" t="n">
-        <v>10.50271772812041</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>20.59756292310993</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>30.69240811809945</v>
-      </c>
-      <c r="P6" t="n">
-        <v>40.78725331308897</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>40.78725331308897</v>
       </c>
       <c r="R6" t="n">
         <v>40.78725331308897</v>
       </c>
       <c r="S6" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="T6" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="U6" t="n">
-        <v>30.48744187038973</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="V6" t="n">
-        <v>20.18763042769049</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="W6" t="n">
         <v>11.11555650896102</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.78725331308897</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="C7" t="n">
-        <v>40.78725331308897</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="D7" t="n">
-        <v>40.78725331308897</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="E7" t="n">
-        <v>31.71517939435949</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="F7" t="n">
         <v>21.41536795166025</v>
       </c>
       <c r="G7" t="n">
+        <v>21.41536795166025</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.11555650896102</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8157450662617793</v>
       </c>
       <c r="I7" t="n">
         <v>0.8157450662617793</v>
       </c>
       <c r="J7" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="M7" t="n">
         <v>10.9105902612513</v>
       </c>
-      <c r="K7" t="n">
-        <v>10.9105902612513</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>21.00543545624082</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
+        <v>21.00543545624082</v>
+      </c>
+      <c r="P7" t="n">
         <v>30.69240811809945</v>
-      </c>
-      <c r="N7" t="n">
-        <v>30.69240811809945</v>
-      </c>
-      <c r="O7" t="n">
-        <v>40.78725331308897</v>
-      </c>
-      <c r="P7" t="n">
-        <v>40.78725331308897</v>
       </c>
       <c r="Q7" t="n">
         <v>40.78725331308897</v>
@@ -4758,19 +4758,19 @@
         <v>40.78725331308897</v>
       </c>
       <c r="U7" t="n">
-        <v>40.78725331308897</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="V7" t="n">
-        <v>40.78725331308897</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="W7" t="n">
-        <v>40.78725331308897</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="X7" t="n">
-        <v>40.78725331308897</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="Y7" t="n">
-        <v>40.78725331308897</v>
+        <v>31.71517939435949</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.60647768900355</v>
+        <v>32.6109605312852</v>
       </c>
       <c r="C8" t="n">
-        <v>28.52229104267774</v>
+        <v>26.52677388495939</v>
       </c>
       <c r="D8" t="n">
-        <v>28.09876517614235</v>
+        <v>26.103248018424</v>
       </c>
       <c r="E8" t="n">
-        <v>17.79895373344311</v>
+        <v>15.80343657572476</v>
       </c>
       <c r="F8" t="n">
-        <v>7.499142290743878</v>
+        <v>5.503625133025528</v>
       </c>
       <c r="G8" t="n">
         <v>0.8157450662617793</v>
@@ -4804,25 +4804,25 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8157450662617793</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="L8" t="n">
-        <v>10.50271772812041</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="M8" t="n">
-        <v>20.59756292310993</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="N8" t="n">
-        <v>30.69240811809945</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="O8" t="n">
-        <v>30.69240811809945</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="P8" t="n">
-        <v>30.69240811809945</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Q8" t="n">
         <v>40.78725331308897</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40.78725331308897</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="C9" t="n">
-        <v>40.78725331308897</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="D9" t="n">
-        <v>40.78725331308897</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="E9" t="n">
-        <v>40.78725331308897</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="F9" t="n">
-        <v>31.71517939435949</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="G9" t="n">
-        <v>21.41536795166025</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="H9" t="n">
         <v>11.11555650896102</v>
@@ -4889,22 +4889,22 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="L9" t="n">
-        <v>10.9105902612513</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="M9" t="n">
-        <v>21.00543545624082</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="N9" t="n">
+        <v>10.50271772812041</v>
+      </c>
+      <c r="O9" t="n">
+        <v>20.59756292310993</v>
+      </c>
+      <c r="P9" t="n">
+        <v>20.59756292310993</v>
+      </c>
+      <c r="Q9" t="n">
         <v>30.69240811809945</v>
-      </c>
-      <c r="O9" t="n">
-        <v>30.69240811809945</v>
-      </c>
-      <c r="P9" t="n">
-        <v>40.78725331308897</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>40.78725331308897</v>
       </c>
       <c r="R9" t="n">
         <v>40.78725331308897</v>
@@ -4916,19 +4916,19 @@
         <v>40.78725331308897</v>
       </c>
       <c r="U9" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="V9" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="W9" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="X9" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.78725331308897</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="C10" t="n">
-        <v>40.78725331308897</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="D10" t="n">
-        <v>40.78725331308897</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="E10" t="n">
-        <v>31.71517939435949</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="F10" t="n">
-        <v>21.41536795166025</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="G10" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="H10" t="n">
-        <v>11.11555650896102</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="I10" t="n">
         <v>0.8157450662617793</v>
       </c>
       <c r="J10" t="n">
-        <v>10.9105902612513</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="K10" t="n">
-        <v>10.9105902612513</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="L10" t="n">
-        <v>10.9105902612513</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="M10" t="n">
-        <v>21.00543545624082</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="N10" t="n">
         <v>30.69240811809945</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>490.2236226706957</v>
+        <v>1162.49568702098</v>
       </c>
       <c r="C11" t="n">
-        <v>490.2236226706957</v>
+        <v>1162.49568702098</v>
       </c>
       <c r="D11" t="n">
-        <v>85.75969276375622</v>
+        <v>758.0317571140401</v>
       </c>
       <c r="E11" t="n">
-        <v>58.40838143107374</v>
+        <v>758.0317571140401</v>
       </c>
       <c r="F11" t="n">
-        <v>58.40838143107374</v>
+        <v>758.0317571140401</v>
       </c>
       <c r="G11" t="n">
-        <v>58.40838143107374</v>
+        <v>351.0838271308784</v>
       </c>
       <c r="H11" t="n">
         <v>58.40838143107374</v>
@@ -5050,43 +5050,43 @@
         <v>430.7494079185639</v>
       </c>
       <c r="M11" t="n">
-        <v>928.6105477312856</v>
+        <v>644.7856611220431</v>
       </c>
       <c r="N11" t="n">
-        <v>1147.978723673038</v>
+        <v>864.1538370637953</v>
       </c>
       <c r="O11" t="n">
-        <v>1349.721090860512</v>
+        <v>1065.89620425127</v>
       </c>
       <c r="P11" t="n">
-        <v>1507.93062843252</v>
+        <v>1380.93496135638</v>
       </c>
       <c r="Q11" t="n">
-        <v>2011.51542721693</v>
+        <v>1884.519760140789</v>
       </c>
       <c r="R11" t="n">
         <v>2034.686055694583</v>
       </c>
       <c r="S11" t="n">
-        <v>2034.686055694583</v>
+        <v>1939.974800089473</v>
       </c>
       <c r="T11" t="n">
-        <v>2034.686055694583</v>
+        <v>1913.269914736409</v>
       </c>
       <c r="U11" t="n">
-        <v>2034.686055694583</v>
+        <v>1913.269914736409</v>
       </c>
       <c r="V11" t="n">
-        <v>1684.848501031064</v>
+        <v>1563.432360072889</v>
       </c>
       <c r="W11" t="n">
-        <v>1301.088200166233</v>
+        <v>1563.432360072889</v>
       </c>
       <c r="X11" t="n">
-        <v>900.4448023351852</v>
+        <v>1563.432360072889</v>
       </c>
       <c r="Y11" t="n">
-        <v>900.4448023351852</v>
+        <v>1162.49568702098</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>688.6235442180058</v>
+        <v>688.6235442180055</v>
       </c>
       <c r="C12" t="n">
-        <v>554.6284729669516</v>
+        <v>554.6284729669512</v>
       </c>
       <c r="D12" t="n">
-        <v>437.7313151863439</v>
+        <v>437.7313151863436</v>
       </c>
       <c r="E12" t="n">
-        <v>317.2384991786719</v>
+        <v>317.2384991786716</v>
       </c>
       <c r="F12" t="n">
-        <v>208.2786193611764</v>
+        <v>208.2786193611763</v>
       </c>
       <c r="G12" t="n">
         <v>102.2410801108263</v>
@@ -5126,22 +5126,22 @@
         <v>429.0126977435139</v>
       </c>
       <c r="L12" t="n">
-        <v>576.1730063268224</v>
+        <v>818.8947707387476</v>
       </c>
       <c r="M12" t="n">
-        <v>1079.757805111232</v>
+        <v>998.4634413619027</v>
       </c>
       <c r="N12" t="n">
-        <v>1269.914625313404</v>
+        <v>1188.620261564075</v>
       </c>
       <c r="O12" t="n">
-        <v>1759.547741847076</v>
+        <v>1353.577584843302</v>
       </c>
       <c r="P12" t="n">
-        <v>1884.11064484464</v>
+        <v>1478.140487840866</v>
       </c>
       <c r="Q12" t="n">
-        <v>1947.160372199421</v>
+        <v>1947.16037219942</v>
       </c>
       <c r="R12" t="n">
         <v>2034.686055694583</v>
@@ -5150,7 +5150,7 @@
         <v>1944.389679574434</v>
       </c>
       <c r="T12" t="n">
-        <v>1788.887355178334</v>
+        <v>1788.887355178333</v>
       </c>
       <c r="U12" t="n">
         <v>1591.599213621507</v>
@@ -5159,13 +5159,13 @@
         <v>1377.887686614541</v>
       </c>
       <c r="W12" t="n">
-        <v>1164.65451835087</v>
+        <v>1164.654518350869</v>
       </c>
       <c r="X12" t="n">
-        <v>988.3285364897624</v>
+        <v>988.3285364897621</v>
       </c>
       <c r="Y12" t="n">
-        <v>828.9265768535925</v>
+        <v>828.9265768535921</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>796.1106184947328</v>
+        <v>775.1398373709901</v>
       </c>
       <c r="C13" t="n">
-        <v>625.0172460564493</v>
+        <v>775.1398373709901</v>
       </c>
       <c r="D13" t="n">
-        <v>625.0172460564493</v>
+        <v>615.6451926939001</v>
       </c>
       <c r="E13" t="n">
-        <v>464.1064309247687</v>
+        <v>606.6135566045106</v>
       </c>
       <c r="F13" t="n">
-        <v>299.47530503536</v>
+        <v>441.9824307151018</v>
       </c>
       <c r="G13" t="n">
-        <v>133.0235195300529</v>
+        <v>275.5306452097947</v>
       </c>
       <c r="H13" t="n">
         <v>133.0235195300529</v>
@@ -5199,19 +5199,19 @@
         <v>40.69372111389167</v>
       </c>
       <c r="J13" t="n">
-        <v>45.11273849322867</v>
+        <v>110.1141021245651</v>
       </c>
       <c r="K13" t="n">
-        <v>84.32192906768685</v>
+        <v>355.6034862847374</v>
       </c>
       <c r="L13" t="n">
-        <v>460.5871530555704</v>
+        <v>420.5086267491496</v>
       </c>
       <c r="M13" t="n">
-        <v>872.5450799310638</v>
+        <v>832.466553624643</v>
       </c>
       <c r="N13" t="n">
-        <v>1273.160346755654</v>
+        <v>1233.081820449234</v>
       </c>
       <c r="O13" t="n">
         <v>1603.275400532907</v>
@@ -5223,28 +5223,28 @@
         <v>2034.686055694583</v>
       </c>
       <c r="R13" t="n">
-        <v>1985.321547779194</v>
+        <v>2034.686055694583</v>
       </c>
       <c r="S13" t="n">
-        <v>1812.84729671419</v>
+        <v>2034.686055694583</v>
       </c>
       <c r="T13" t="n">
-        <v>1576.710781486349</v>
+        <v>1798.549540466742</v>
       </c>
       <c r="U13" t="n">
-        <v>1293.956194336245</v>
+        <v>1515.794953316638</v>
       </c>
       <c r="V13" t="n">
-        <v>1208.546023500012</v>
+        <v>1241.90920825616</v>
       </c>
       <c r="W13" t="n">
-        <v>1208.546023500012</v>
+        <v>962.8395437650345</v>
       </c>
       <c r="X13" t="n">
-        <v>1208.546023500012</v>
+        <v>962.8395437650345</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.8103248887771</v>
+        <v>962.8395437650345</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1128.816947373072</v>
+        <v>674.6622722742782</v>
       </c>
       <c r="C14" t="n">
-        <v>1128.816947373072</v>
+        <v>674.6622722742782</v>
       </c>
       <c r="D14" t="n">
-        <v>1128.816947373072</v>
+        <v>674.6622722742782</v>
       </c>
       <c r="E14" t="n">
-        <v>1128.816947373072</v>
+        <v>674.6622722742782</v>
       </c>
       <c r="F14" t="n">
-        <v>707.7865353267596</v>
+        <v>253.6318602279657</v>
       </c>
       <c r="G14" t="n">
-        <v>300.8386053435979</v>
+        <v>58.40838143107374</v>
       </c>
       <c r="H14" t="n">
-        <v>40.69372111389163</v>
+        <v>58.40838143107374</v>
       </c>
       <c r="I14" t="n">
-        <v>40.69372111389163</v>
+        <v>40.69372111389167</v>
       </c>
       <c r="J14" t="n">
-        <v>116.2017004427146</v>
+        <v>116.2017004427147</v>
       </c>
       <c r="K14" t="n">
         <v>249.9176879218286</v>
@@ -5290,40 +5290,40 @@
         <v>644.7856611220431</v>
       </c>
       <c r="N14" t="n">
-        <v>864.1538370637953</v>
+        <v>1148.370459906452</v>
       </c>
       <c r="O14" t="n">
-        <v>1222.72542378437</v>
+        <v>1651.955258690862</v>
       </c>
       <c r="P14" t="n">
-        <v>1380.934961356378</v>
+        <v>1810.16479626287</v>
       </c>
       <c r="Q14" t="n">
-        <v>1884.519760140787</v>
+        <v>1909.463607809937</v>
       </c>
       <c r="R14" t="n">
-        <v>2034.686055694582</v>
+        <v>2034.686055694583</v>
       </c>
       <c r="S14" t="n">
-        <v>1939.974800089471</v>
+        <v>1939.974800089473</v>
       </c>
       <c r="T14" t="n">
-        <v>1939.974800089471</v>
+        <v>1725.561816214168</v>
       </c>
       <c r="U14" t="n">
-        <v>1939.974800089471</v>
+        <v>1468.643752803599</v>
       </c>
       <c r="V14" t="n">
-        <v>1939.974800089471</v>
+        <v>1468.643752803599</v>
       </c>
       <c r="W14" t="n">
-        <v>1939.974800089471</v>
+        <v>1084.883451938768</v>
       </c>
       <c r="X14" t="n">
-        <v>1939.974800089471</v>
+        <v>1084.883451938768</v>
       </c>
       <c r="Y14" t="n">
-        <v>1539.038127037561</v>
+        <v>1084.883451938768</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>688.6235442180055</v>
+        <v>688.6235442180053</v>
       </c>
       <c r="C15" t="n">
-        <v>554.6284729669512</v>
+        <v>554.6284729669511</v>
       </c>
       <c r="D15" t="n">
-        <v>437.7313151863436</v>
+        <v>437.7313151863434</v>
       </c>
       <c r="E15" t="n">
-        <v>317.2384991786716</v>
+        <v>317.2384991786714</v>
       </c>
       <c r="F15" t="n">
-        <v>208.2786193611762</v>
+        <v>208.278619361176</v>
       </c>
       <c r="G15" t="n">
         <v>102.2410801108263</v>
       </c>
       <c r="H15" t="n">
-        <v>40.69372111389163</v>
+        <v>40.69372111389167</v>
       </c>
       <c r="I15" t="n">
-        <v>40.69372111389163</v>
+        <v>52.50230393064652</v>
       </c>
       <c r="J15" t="n">
-        <v>321.7129322777459</v>
+        <v>333.5215150945008</v>
       </c>
       <c r="K15" t="n">
-        <v>825.297731062155</v>
+        <v>429.0126977435139</v>
       </c>
       <c r="L15" t="n">
-        <v>1224.864927742521</v>
+        <v>576.1730063268224</v>
       </c>
       <c r="M15" t="n">
-        <v>1404.433598365676</v>
+        <v>755.7416769499774</v>
       </c>
       <c r="N15" t="n">
-        <v>1594.590418567848</v>
+        <v>945.8984971521495</v>
       </c>
       <c r="O15" t="n">
-        <v>1759.547741847075</v>
+        <v>1110.855820431377</v>
       </c>
       <c r="P15" t="n">
-        <v>1884.110644844639</v>
+        <v>1478.140487840866</v>
       </c>
       <c r="Q15" t="n">
-        <v>1947.16037219942</v>
+        <v>1947.160372199421</v>
       </c>
       <c r="R15" t="n">
         <v>2034.686055694583</v>
@@ -5393,16 +5393,16 @@
         <v>1591.599213621507</v>
       </c>
       <c r="V15" t="n">
-        <v>1377.887686614541</v>
+        <v>1377.88768661454</v>
       </c>
       <c r="W15" t="n">
         <v>1164.654518350869</v>
       </c>
       <c r="X15" t="n">
-        <v>988.3285364897621</v>
+        <v>988.328536489762</v>
       </c>
       <c r="Y15" t="n">
-        <v>828.9265768535921</v>
+        <v>828.926576853592</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>211.7870935521751</v>
+        <v>613.0758031533853</v>
       </c>
       <c r="C16" t="n">
-        <v>40.69372111389163</v>
+        <v>441.9824307151018</v>
       </c>
       <c r="D16" t="n">
-        <v>40.69372111389163</v>
+        <v>441.9824307151018</v>
       </c>
       <c r="E16" t="n">
-        <v>40.69372111389163</v>
+        <v>441.9824307151018</v>
       </c>
       <c r="F16" t="n">
-        <v>40.69372111389163</v>
+        <v>441.9824307151018</v>
       </c>
       <c r="G16" t="n">
-        <v>40.69372111389163</v>
+        <v>275.5306452097947</v>
       </c>
       <c r="H16" t="n">
-        <v>40.69372111389163</v>
+        <v>133.0235195300529</v>
       </c>
       <c r="I16" t="n">
-        <v>40.69372111389163</v>
+        <v>40.69372111389167</v>
       </c>
       <c r="J16" t="n">
-        <v>110.114102124565</v>
+        <v>110.1141021245651</v>
       </c>
       <c r="K16" t="n">
         <v>355.6034862847374</v>
       </c>
       <c r="L16" t="n">
-        <v>420.508626749148</v>
+        <v>731.868710272621</v>
       </c>
       <c r="M16" t="n">
-        <v>832.4665536246414</v>
+        <v>832.466553624643</v>
       </c>
       <c r="N16" t="n">
-        <v>1233.081820449232</v>
+        <v>1233.081820449234</v>
       </c>
       <c r="O16" t="n">
-        <v>1603.275400532905</v>
+        <v>1603.275400532907</v>
       </c>
       <c r="P16" t="n">
-        <v>1903.61645884592</v>
+        <v>1903.616458845921</v>
       </c>
       <c r="Q16" t="n">
-        <v>2034.686055694582</v>
+        <v>2034.686055694583</v>
       </c>
       <c r="R16" t="n">
-        <v>2034.686055694582</v>
+        <v>1985.321547779194</v>
       </c>
       <c r="S16" t="n">
-        <v>1862.211804629578</v>
+        <v>1812.84729671419</v>
       </c>
       <c r="T16" t="n">
-        <v>1698.276357399479</v>
+        <v>1812.84729671419</v>
       </c>
       <c r="U16" t="n">
-        <v>1415.521770249375</v>
+        <v>1530.092709564086</v>
       </c>
       <c r="V16" t="n">
-        <v>1141.636025188897</v>
+        <v>1355.225028396063</v>
       </c>
       <c r="W16" t="n">
-        <v>862.5663606977714</v>
+        <v>1076.155363904937</v>
       </c>
       <c r="X16" t="n">
-        <v>624.2224985574549</v>
+        <v>837.8115017646206</v>
       </c>
       <c r="Y16" t="n">
-        <v>399.4867999462195</v>
+        <v>613.0758031533853</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1942.17924697241</v>
+        <v>1300.381601489902</v>
       </c>
       <c r="C17" t="n">
-        <v>1532.05465628568</v>
+        <v>890.2570108031721</v>
       </c>
       <c r="D17" t="n">
-        <v>1532.05465628568</v>
+        <v>485.7930808962326</v>
       </c>
       <c r="E17" t="n">
-        <v>1117.714440802577</v>
+        <v>485.7930808962326</v>
       </c>
       <c r="F17" t="n">
-        <v>696.6840287562641</v>
+        <v>64.76266884992012</v>
       </c>
       <c r="G17" t="n">
-        <v>289.7360987731024</v>
+        <v>64.76266884992012</v>
       </c>
       <c r="H17" t="n">
-        <v>47.04800853273799</v>
+        <v>64.76266884992012</v>
       </c>
       <c r="I17" t="n">
-        <v>47.04800853273799</v>
+        <v>47.04800853273805</v>
       </c>
       <c r="J17" t="n">
-        <v>122.555987861561</v>
+        <v>449.3318147492902</v>
       </c>
       <c r="K17" t="n">
-        <v>256.271975340675</v>
+        <v>718.4527924841386</v>
       </c>
       <c r="L17" t="n">
-        <v>838.4910809333076</v>
+        <v>899.2845124808739</v>
       </c>
       <c r="M17" t="n">
-        <v>1287.759976260063</v>
+        <v>1113.320765684353</v>
       </c>
       <c r="N17" t="n">
-        <v>1869.979081852696</v>
+        <v>1332.688941626105</v>
       </c>
       <c r="O17" t="n">
-        <v>2071.72144904017</v>
+        <v>1534.43130881358</v>
       </c>
       <c r="P17" t="n">
-        <v>2229.930986612178</v>
+        <v>1692.640846385588</v>
       </c>
       <c r="Q17" t="n">
-        <v>2329.229798159246</v>
+        <v>2202.234131083108</v>
       </c>
       <c r="R17" t="n">
-        <v>2352.400426636899</v>
+        <v>2352.400426636902</v>
       </c>
       <c r="S17" t="n">
-        <v>2352.400426636899</v>
+        <v>2352.400426636902</v>
       </c>
       <c r="T17" t="n">
-        <v>2352.400426636899</v>
+        <v>2352.400426636902</v>
       </c>
       <c r="U17" t="n">
-        <v>2352.400426636899</v>
+        <v>2352.400426636902</v>
       </c>
       <c r="V17" t="n">
-        <v>2352.400426636899</v>
+        <v>2352.400426636902</v>
       </c>
       <c r="W17" t="n">
-        <v>2352.400426636899</v>
+        <v>1968.640125772071</v>
       </c>
       <c r="X17" t="n">
-        <v>2352.400426636899</v>
+        <v>1968.640125772071</v>
       </c>
       <c r="Y17" t="n">
-        <v>2352.400426636899</v>
+        <v>1710.602781154392</v>
       </c>
     </row>
     <row r="18">
@@ -5570,61 +5570,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>694.9778316368518</v>
+        <v>694.977831636852</v>
       </c>
       <c r="C18" t="n">
-        <v>560.9827603857975</v>
+        <v>560.9827603857976</v>
       </c>
       <c r="D18" t="n">
-        <v>444.0856026051899</v>
+        <v>444.08560260519</v>
       </c>
       <c r="E18" t="n">
-        <v>323.5927865975179</v>
+        <v>323.5927865975181</v>
       </c>
       <c r="F18" t="n">
         <v>214.6329067800226</v>
       </c>
       <c r="G18" t="n">
-        <v>108.5953675296726</v>
+        <v>108.5953675296727</v>
       </c>
       <c r="H18" t="n">
-        <v>47.04800853273799</v>
+        <v>47.04800853273805</v>
       </c>
       <c r="I18" t="n">
-        <v>47.04800853273799</v>
+        <v>58.8565913494929</v>
       </c>
       <c r="J18" t="n">
-        <v>84.39881572195908</v>
+        <v>339.8758025133473</v>
       </c>
       <c r="K18" t="n">
-        <v>179.8899983709722</v>
+        <v>435.3669851623603</v>
       </c>
       <c r="L18" t="n">
-        <v>327.0503069542806</v>
+        <v>582.5272937456687</v>
       </c>
       <c r="M18" t="n">
-        <v>623.3955843712107</v>
+        <v>762.0959643688237</v>
       </c>
       <c r="N18" t="n">
-        <v>813.5524045733828</v>
+        <v>952.2527845709958</v>
       </c>
       <c r="O18" t="n">
-        <v>1395.771510166015</v>
+        <v>1117.210107850223</v>
       </c>
       <c r="P18" t="n">
-        <v>1977.990615758648</v>
+        <v>1484.494775259712</v>
       </c>
       <c r="Q18" t="n">
-        <v>2041.040343113429</v>
+        <v>1953.514659618267</v>
       </c>
       <c r="R18" t="n">
         <v>2041.040343113429</v>
       </c>
       <c r="S18" t="n">
-        <v>1950.74396699328</v>
+        <v>1950.743966993281</v>
       </c>
       <c r="T18" t="n">
-        <v>1795.241642597179</v>
+        <v>1795.24164259718</v>
       </c>
       <c r="U18" t="n">
         <v>1597.953501040353</v>
@@ -5636,10 +5636,10 @@
         <v>1171.008805769716</v>
       </c>
       <c r="X18" t="n">
-        <v>994.6828239086084</v>
+        <v>994.6828239086086</v>
       </c>
       <c r="Y18" t="n">
-        <v>835.2808642724384</v>
+        <v>835.2808642724386</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1104.466676270411</v>
+        <v>740.054983646858</v>
       </c>
       <c r="C19" t="n">
-        <v>933.3733038321275</v>
+        <v>568.9616112085745</v>
       </c>
       <c r="D19" t="n">
-        <v>773.8786591550374</v>
+        <v>409.4669665314845</v>
       </c>
       <c r="E19" t="n">
-        <v>612.967844023357</v>
+        <v>409.4669665314845</v>
       </c>
       <c r="F19" t="n">
-        <v>448.3367181339482</v>
+        <v>244.8358406420758</v>
       </c>
       <c r="G19" t="n">
-        <v>281.8849326286411</v>
+        <v>189.5551342124799</v>
       </c>
       <c r="H19" t="n">
-        <v>139.3778069488992</v>
+        <v>47.04800853273805</v>
       </c>
       <c r="I19" t="n">
-        <v>47.04800853273799</v>
+        <v>47.04800853273805</v>
       </c>
       <c r="J19" t="n">
         <v>116.4683895434114</v>
       </c>
       <c r="K19" t="n">
-        <v>361.9577737035837</v>
+        <v>361.9577737035838</v>
       </c>
       <c r="L19" t="n">
         <v>738.2229976914673</v>
       </c>
       <c r="M19" t="n">
-        <v>1150.180924566961</v>
+        <v>1150.180924566962</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.79619139155</v>
+        <v>1550.796191391553</v>
       </c>
       <c r="O19" t="n">
-        <v>1920.989771475223</v>
+        <v>1920.989771475226</v>
       </c>
       <c r="P19" t="n">
-        <v>2221.330829788237</v>
+        <v>2221.33082978824</v>
       </c>
       <c r="Q19" t="n">
-        <v>2352.400426636899</v>
+        <v>2352.400426636902</v>
       </c>
       <c r="R19" t="n">
-        <v>2352.400426636899</v>
+        <v>2352.400426636902</v>
       </c>
       <c r="S19" t="n">
-        <v>2352.400426636899</v>
+        <v>2179.926175571899</v>
       </c>
       <c r="T19" t="n">
-        <v>2352.400426636899</v>
+        <v>1943.789660344058</v>
       </c>
       <c r="U19" t="n">
-        <v>2308.201352967611</v>
+        <v>1943.789660344058</v>
       </c>
       <c r="V19" t="n">
-        <v>2034.315607907133</v>
+        <v>1669.90391528358</v>
       </c>
       <c r="W19" t="n">
-        <v>1755.245943416007</v>
+        <v>1390.834250792454</v>
       </c>
       <c r="X19" t="n">
-        <v>1516.902081275691</v>
+        <v>1152.490388652138</v>
       </c>
       <c r="Y19" t="n">
-        <v>1292.166382664455</v>
+        <v>927.7546900409023</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>878.2030112657803</v>
+        <v>1192.808742079141</v>
       </c>
       <c r="C20" t="n">
-        <v>468.0784205790504</v>
+        <v>1192.808742079141</v>
       </c>
       <c r="D20" t="n">
-        <v>468.0784205790504</v>
+        <v>1192.808742079141</v>
       </c>
       <c r="E20" t="n">
-        <v>468.0784205790504</v>
+        <v>778.4685265960372</v>
       </c>
       <c r="F20" t="n">
-        <v>47.04800853273799</v>
+        <v>357.4381145497248</v>
       </c>
       <c r="G20" t="n">
-        <v>47.04800853273799</v>
+        <v>357.4381145497248</v>
       </c>
       <c r="H20" t="n">
-        <v>47.04800853273799</v>
+        <v>64.76266884992009</v>
       </c>
       <c r="I20" t="n">
-        <v>47.04800853273799</v>
+        <v>47.04800853273802</v>
       </c>
       <c r="J20" t="n">
         <v>122.555987861561</v>
@@ -5758,46 +5758,46 @@
         <v>256.271975340675</v>
       </c>
       <c r="L20" t="n">
-        <v>838.4910809333076</v>
+        <v>437.1036953374102</v>
       </c>
       <c r="M20" t="n">
-        <v>1160.764309183922</v>
+        <v>651.1399485408895</v>
       </c>
       <c r="N20" t="n">
-        <v>1742.983414776555</v>
+        <v>870.5081244826417</v>
       </c>
       <c r="O20" t="n">
-        <v>1944.725781964029</v>
+        <v>1110.421740792953</v>
       </c>
       <c r="P20" t="n">
-        <v>2102.935319536037</v>
+        <v>1692.640846385586</v>
       </c>
       <c r="Q20" t="n">
-        <v>2202.234131083105</v>
+        <v>2202.234131083107</v>
       </c>
       <c r="R20" t="n">
-        <v>2352.400426636899</v>
+        <v>2352.400426636901</v>
       </c>
       <c r="S20" t="n">
-        <v>2352.400426636899</v>
+        <v>2352.400426636901</v>
       </c>
       <c r="T20" t="n">
-        <v>2352.400426636899</v>
+        <v>2137.987442761596</v>
       </c>
       <c r="U20" t="n">
-        <v>2352.400426636899</v>
+        <v>1881.069379351027</v>
       </c>
       <c r="V20" t="n">
-        <v>2063.543383013569</v>
+        <v>1881.069379351027</v>
       </c>
       <c r="W20" t="n">
-        <v>1679.783082148738</v>
+        <v>1881.069379351027</v>
       </c>
       <c r="X20" t="n">
-        <v>1279.13968431769</v>
+        <v>1881.069379351027</v>
       </c>
       <c r="Y20" t="n">
-        <v>878.2030112657803</v>
+        <v>1603.02992174363</v>
       </c>
     </row>
     <row r="21">
@@ -5807,61 +5807,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>694.9778316368518</v>
+        <v>694.977831636852</v>
       </c>
       <c r="C21" t="n">
-        <v>560.9827603857975</v>
+        <v>560.9827603857976</v>
       </c>
       <c r="D21" t="n">
-        <v>444.0856026051899</v>
+        <v>444.08560260519</v>
       </c>
       <c r="E21" t="n">
-        <v>323.5927865975179</v>
+        <v>323.5927865975181</v>
       </c>
       <c r="F21" t="n">
         <v>214.6329067800226</v>
       </c>
       <c r="G21" t="n">
-        <v>108.5953675296726</v>
+        <v>108.5953675296727</v>
       </c>
       <c r="H21" t="n">
-        <v>47.04800853273799</v>
+        <v>47.04800853273802</v>
       </c>
       <c r="I21" t="n">
-        <v>58.85659134949285</v>
+        <v>58.85659134949287</v>
       </c>
       <c r="J21" t="n">
-        <v>96.20739853871393</v>
+        <v>339.8758025133472</v>
       </c>
       <c r="K21" t="n">
-        <v>191.698581187727</v>
+        <v>678.0887495742858</v>
       </c>
       <c r="L21" t="n">
-        <v>773.9176867803596</v>
+        <v>825.2490581575942</v>
       </c>
       <c r="M21" t="n">
-        <v>953.4863574035147</v>
+        <v>1004.817728780749</v>
       </c>
       <c r="N21" t="n">
-        <v>1143.643177605687</v>
+        <v>1194.974548982921</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.862283198319</v>
+        <v>1359.931872262148</v>
       </c>
       <c r="P21" t="n">
-        <v>1977.990615758648</v>
+        <v>1484.494775259712</v>
       </c>
       <c r="Q21" t="n">
-        <v>2041.040343113429</v>
+        <v>1953.514659618267</v>
       </c>
       <c r="R21" t="n">
         <v>2041.040343113429</v>
       </c>
       <c r="S21" t="n">
-        <v>1950.74396699328</v>
+        <v>1950.743966993281</v>
       </c>
       <c r="T21" t="n">
-        <v>1795.241642597179</v>
+        <v>1795.24164259718</v>
       </c>
       <c r="U21" t="n">
         <v>1597.953501040353</v>
@@ -5873,10 +5873,10 @@
         <v>1171.008805769716</v>
       </c>
       <c r="X21" t="n">
-        <v>994.6828239086084</v>
+        <v>994.6828239086086</v>
       </c>
       <c r="Y21" t="n">
-        <v>835.2808642724384</v>
+        <v>835.2808642724386</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1012.13687785425</v>
+        <v>795.5077650853619</v>
       </c>
       <c r="C22" t="n">
-        <v>841.0435054159661</v>
+        <v>624.4143926470784</v>
       </c>
       <c r="D22" t="n">
-        <v>681.5488607388761</v>
+        <v>464.9197479699885</v>
       </c>
       <c r="E22" t="n">
-        <v>520.6380456071956</v>
+        <v>304.0089328383079</v>
       </c>
       <c r="F22" t="n">
-        <v>356.006919717787</v>
+        <v>139.3778069488992</v>
       </c>
       <c r="G22" t="n">
-        <v>189.5551342124798</v>
+        <v>139.3778069488992</v>
       </c>
       <c r="H22" t="n">
-        <v>47.04800853273799</v>
+        <v>139.3778069488992</v>
       </c>
       <c r="I22" t="n">
-        <v>47.04800853273799</v>
+        <v>47.04800853273802</v>
       </c>
       <c r="J22" t="n">
-        <v>116.4683895434097</v>
+        <v>116.4683895434118</v>
       </c>
       <c r="K22" t="n">
-        <v>361.957773703582</v>
+        <v>361.9577737035842</v>
       </c>
       <c r="L22" t="n">
-        <v>738.2229976914656</v>
+        <v>738.2229976914678</v>
       </c>
       <c r="M22" t="n">
-        <v>1150.180924566959</v>
+        <v>1150.180924566961</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.79619139155</v>
+        <v>1550.796191391551</v>
       </c>
       <c r="O22" t="n">
-        <v>1920.989771475223</v>
+        <v>1920.989771475225</v>
       </c>
       <c r="P22" t="n">
-        <v>2221.330829788237</v>
+        <v>2221.330829788239</v>
       </c>
       <c r="Q22" t="n">
-        <v>2352.400426636899</v>
+        <v>2352.400426636901</v>
       </c>
       <c r="R22" t="n">
-        <v>2350.596575783816</v>
+        <v>2352.400426636901</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.122324718813</v>
+        <v>2179.926175571898</v>
       </c>
       <c r="T22" t="n">
-        <v>1941.985809490972</v>
+        <v>2179.926175571898</v>
       </c>
       <c r="U22" t="n">
-        <v>1941.985809490972</v>
+        <v>1897.171588421794</v>
       </c>
       <c r="V22" t="n">
-        <v>1941.985809490972</v>
+        <v>1623.285843361316</v>
       </c>
       <c r="W22" t="n">
-        <v>1662.916144999846</v>
+        <v>1344.21617887019</v>
       </c>
       <c r="X22" t="n">
-        <v>1424.572282859529</v>
+        <v>1105.872316729873</v>
       </c>
       <c r="Y22" t="n">
-        <v>1199.836584248294</v>
+        <v>881.136618118638</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2455.038913769863</v>
+        <v>2162.363468070058</v>
       </c>
       <c r="C23" t="n">
-        <v>2044.914323083133</v>
+        <v>1752.238877383329</v>
       </c>
       <c r="D23" t="n">
-        <v>1640.450393176194</v>
+        <v>1347.774947476389</v>
       </c>
       <c r="E23" t="n">
-        <v>1226.110177693091</v>
+        <v>933.4347319932859</v>
       </c>
       <c r="F23" t="n">
-        <v>805.0797656467782</v>
+        <v>512.4043199469735</v>
       </c>
       <c r="G23" t="n">
-        <v>398.1318356636165</v>
+        <v>105.4563899638117</v>
       </c>
       <c r="H23" t="n">
         <v>105.4563899638117</v>
@@ -5992,49 +5992,49 @@
         <v>163.2497089754527</v>
       </c>
       <c r="K23" t="n">
-        <v>296.9656964545667</v>
+        <v>923.3702233400911</v>
       </c>
       <c r="L23" t="n">
-        <v>1284.919360345756</v>
+        <v>1911.323887231281</v>
       </c>
       <c r="M23" t="n">
-        <v>2367.631526753465</v>
+        <v>2125.36014043476</v>
       </c>
       <c r="N23" t="n">
-        <v>3432.163887182888</v>
+        <v>2344.728316376512</v>
       </c>
       <c r="O23" t="n">
-        <v>3633.906254370363</v>
+        <v>3282.359417850617</v>
       </c>
       <c r="P23" t="n">
-        <v>3792.115791942371</v>
+        <v>4062.438522989852</v>
       </c>
       <c r="Q23" t="n">
-        <v>4301.709076639891</v>
+        <v>4363.91585385383</v>
       </c>
       <c r="R23" t="n">
         <v>4387.086482331484</v>
       </c>
       <c r="S23" t="n">
-        <v>4292.375226726374</v>
+        <v>4387.086482331484</v>
       </c>
       <c r="T23" t="n">
-        <v>4077.962242851069</v>
+        <v>4172.67349845618</v>
       </c>
       <c r="U23" t="n">
-        <v>3821.0441794405</v>
+        <v>4107.762574145856</v>
       </c>
       <c r="V23" t="n">
-        <v>3471.20662477698</v>
+        <v>3757.925019482337</v>
       </c>
       <c r="W23" t="n">
-        <v>3471.20662477698</v>
+        <v>3374.164718617505</v>
       </c>
       <c r="X23" t="n">
-        <v>3070.563226945933</v>
+        <v>2973.521320786458</v>
       </c>
       <c r="Y23" t="n">
-        <v>2865.260093434353</v>
+        <v>2572.584647734548</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>87.74172964662968</v>
       </c>
       <c r="I24" t="n">
-        <v>87.74172964662968</v>
+        <v>99.55031246338453</v>
       </c>
       <c r="J24" t="n">
-        <v>125.0925368358508</v>
+        <v>380.5695236272388</v>
       </c>
       <c r="K24" t="n">
-        <v>220.5837194848639</v>
+        <v>718.7824706881775</v>
       </c>
       <c r="L24" t="n">
-        <v>1084.385578560201</v>
+        <v>865.9427792714858</v>
       </c>
       <c r="M24" t="n">
-        <v>1263.954249183356</v>
+        <v>1045.511449894641</v>
       </c>
       <c r="N24" t="n">
-        <v>1454.111069385528</v>
+        <v>1235.668270096813</v>
       </c>
       <c r="O24" t="n">
-        <v>1894.121433874976</v>
+        <v>1400.62559337604</v>
       </c>
       <c r="P24" t="n">
-        <v>2018.68433687254</v>
+        <v>1525.188496373604</v>
       </c>
       <c r="Q24" t="n">
-        <v>2081.734064227321</v>
+        <v>1994.208380732159</v>
       </c>
       <c r="R24" t="n">
         <v>2081.734064227321</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>906.6048839034888</v>
+        <v>888.1994730787328</v>
       </c>
       <c r="C25" t="n">
-        <v>735.5115114652053</v>
+        <v>717.1061006404493</v>
       </c>
       <c r="D25" t="n">
-        <v>576.0168667881153</v>
+        <v>557.6114559633593</v>
       </c>
       <c r="E25" t="n">
-        <v>415.1060516564348</v>
+        <v>396.7006408316787</v>
       </c>
       <c r="F25" t="n">
-        <v>250.474925767026</v>
+        <v>396.7006408316787</v>
       </c>
       <c r="G25" t="n">
-        <v>87.74172964662968</v>
+        <v>230.2488553263715</v>
       </c>
       <c r="H25" t="n">
         <v>87.74172964662968</v>
@@ -6171,28 +6171,28 @@
         <v>2393.094147750793</v>
       </c>
       <c r="R25" t="n">
-        <v>2393.094147750793</v>
+        <v>2343.729639835403</v>
       </c>
       <c r="S25" t="n">
-        <v>2393.094147750793</v>
+        <v>2171.2553887704</v>
       </c>
       <c r="T25" t="n">
-        <v>2393.094147750793</v>
+        <v>2100.802991865559</v>
       </c>
       <c r="U25" t="n">
-        <v>2110.339560600689</v>
+        <v>1818.048404715455</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.453815540211</v>
+        <v>1818.048404715455</v>
       </c>
       <c r="W25" t="n">
-        <v>1557.384151049085</v>
+        <v>1538.978740224329</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.040288908769</v>
+        <v>1300.634878084013</v>
       </c>
       <c r="Y25" t="n">
-        <v>1094.304590297533</v>
+        <v>1075.899179472777</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2245.078999716103</v>
+        <v>2184.695374715133</v>
       </c>
       <c r="C26" t="n">
-        <v>1834.954409029373</v>
+        <v>1774.570784028403</v>
       </c>
       <c r="D26" t="n">
-        <v>1639.634648109932</v>
+        <v>1370.106854121464</v>
       </c>
       <c r="E26" t="n">
         <v>1225.294432626829</v>
@@ -6226,28 +6226,28 @@
         <v>86.92598458036791</v>
       </c>
       <c r="J26" t="n">
-        <v>162.4339639091909</v>
+        <v>489.2097907969201</v>
       </c>
       <c r="K26" t="n">
-        <v>296.1499513883049</v>
+        <v>1249.330305161558</v>
       </c>
       <c r="L26" t="n">
-        <v>1284.103615279495</v>
+        <v>2157.294580575736</v>
       </c>
       <c r="M26" t="n">
-        <v>2359.812674461547</v>
+        <v>2371.330833779215</v>
       </c>
       <c r="N26" t="n">
-        <v>3424.345034890971</v>
+        <v>2590.699009720968</v>
       </c>
       <c r="O26" t="n">
-        <v>4065.620251421666</v>
+        <v>3528.330111195072</v>
       </c>
       <c r="P26" t="n">
-        <v>4223.829788993674</v>
+        <v>3686.539648767081</v>
       </c>
       <c r="Q26" t="n">
-        <v>4323.128600540742</v>
+        <v>4196.132933464601</v>
       </c>
       <c r="R26" t="n">
         <v>4346.299229018396</v>
@@ -6262,16 +6262,16 @@
         <v>3780.256926127411</v>
       </c>
       <c r="V26" t="n">
-        <v>3430.419371463892</v>
+        <v>3780.256926127411</v>
       </c>
       <c r="W26" t="n">
-        <v>3046.65907059906</v>
+        <v>3396.49662526258</v>
       </c>
       <c r="X26" t="n">
-        <v>2646.015672768013</v>
+        <v>2995.853227431532</v>
       </c>
       <c r="Y26" t="n">
-        <v>2245.078999716103</v>
+        <v>2594.916554379622</v>
       </c>
     </row>
     <row r="27">
@@ -6317,16 +6317,16 @@
         <v>801.9739404164536</v>
       </c>
       <c r="N27" t="n">
-        <v>1322.378208525714</v>
+        <v>1234.852525030551</v>
       </c>
       <c r="O27" t="n">
-        <v>1487.335531804941</v>
+        <v>1399.809848309778</v>
       </c>
       <c r="P27" t="n">
-        <v>1611.898434802505</v>
+        <v>1524.372751307342</v>
       </c>
       <c r="Q27" t="n">
-        <v>2080.91831916106</v>
+        <v>1993.392635665897</v>
       </c>
       <c r="R27" t="n">
         <v>2080.91831916106</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1144.344652318041</v>
+        <v>721.6996096894708</v>
       </c>
       <c r="C28" t="n">
-        <v>973.2512798797575</v>
+        <v>721.6996096894708</v>
       </c>
       <c r="D28" t="n">
-        <v>813.7566352026674</v>
+        <v>721.6996096894708</v>
       </c>
       <c r="E28" t="n">
         <v>652.8458200709869</v>
@@ -6408,28 +6408,28 @@
         <v>2392.278402684531</v>
       </c>
       <c r="R28" t="n">
-        <v>2392.278402684531</v>
+        <v>2342.913894769141</v>
       </c>
       <c r="S28" t="n">
-        <v>2392.278402684531</v>
+        <v>2170.439643704138</v>
       </c>
       <c r="T28" t="n">
-        <v>2348.079329015241</v>
+        <v>1934.303128476297</v>
       </c>
       <c r="U28" t="n">
-        <v>2348.079329015241</v>
+        <v>1651.548541326193</v>
       </c>
       <c r="V28" t="n">
-        <v>2074.193583954763</v>
+        <v>1651.548541326193</v>
       </c>
       <c r="W28" t="n">
-        <v>1795.123919463637</v>
+        <v>1372.478876835067</v>
       </c>
       <c r="X28" t="n">
-        <v>1556.780057323321</v>
+        <v>1134.13501469475</v>
       </c>
       <c r="Y28" t="n">
-        <v>1332.044358712085</v>
+        <v>909.3993160835151</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1929.569075656724</v>
+        <v>2161.547723003797</v>
       </c>
       <c r="C29" t="n">
-        <v>1519.444484969994</v>
+        <v>1751.423132317067</v>
       </c>
       <c r="D29" t="n">
-        <v>1114.980555063054</v>
+        <v>1346.959202410128</v>
       </c>
       <c r="E29" t="n">
-        <v>700.6403395799512</v>
+        <v>932.6189869270241</v>
       </c>
       <c r="F29" t="n">
-        <v>279.6099275336387</v>
+        <v>511.5885748807117</v>
       </c>
       <c r="G29" t="n">
-        <v>86.92598458036791</v>
+        <v>104.64064489755</v>
       </c>
       <c r="H29" t="n">
-        <v>86.92598458036791</v>
+        <v>104.64064489755</v>
       </c>
       <c r="I29" t="n">
         <v>86.92598458036791</v>
       </c>
       <c r="J29" t="n">
-        <v>489.2097907969201</v>
+        <v>162.4339639091909</v>
       </c>
       <c r="K29" t="n">
-        <v>1249.330305161558</v>
+        <v>844.9582509325664</v>
       </c>
       <c r="L29" t="n">
-        <v>2237.283969052748</v>
+        <v>1832.911914823756</v>
       </c>
       <c r="M29" t="n">
-        <v>3312.993028234801</v>
+        <v>2908.620974005809</v>
       </c>
       <c r="N29" t="n">
-        <v>3532.361204176553</v>
+        <v>3127.989149947561</v>
       </c>
       <c r="O29" t="n">
-        <v>3734.103571364028</v>
+        <v>4065.620251421666</v>
       </c>
       <c r="P29" t="n">
-        <v>3892.313108936036</v>
+        <v>4223.829788993674</v>
       </c>
       <c r="Q29" t="n">
-        <v>4196.132933464601</v>
+        <v>4323.128600540742</v>
       </c>
       <c r="R29" t="n">
         <v>4346.299229018396</v>
@@ -6496,19 +6496,19 @@
         <v>4131.886245143091</v>
       </c>
       <c r="U29" t="n">
-        <v>3874.968181732522</v>
+        <v>4106.946829079595</v>
       </c>
       <c r="V29" t="n">
-        <v>3525.130627069002</v>
+        <v>3757.109274416076</v>
       </c>
       <c r="W29" t="n">
-        <v>3141.370326204171</v>
+        <v>3373.348973551244</v>
       </c>
       <c r="X29" t="n">
-        <v>2740.726928373123</v>
+        <v>2972.705575720197</v>
       </c>
       <c r="Y29" t="n">
-        <v>2339.790255321213</v>
+        <v>2571.768902668287</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>379.7537785609771</v>
       </c>
       <c r="K30" t="n">
-        <v>475.2449612099902</v>
+        <v>717.9667256219159</v>
       </c>
       <c r="L30" t="n">
-        <v>622.4052697932985</v>
+        <v>865.1270342052243</v>
       </c>
       <c r="M30" t="n">
-        <v>1538.191545327315</v>
+        <v>1044.695704828379</v>
       </c>
       <c r="N30" t="n">
-        <v>1728.348365529488</v>
+        <v>1234.852525030551</v>
       </c>
       <c r="O30" t="n">
-        <v>1893.305688808715</v>
+        <v>1399.809848309778</v>
       </c>
       <c r="P30" t="n">
-        <v>2017.868591806279</v>
+        <v>1524.372751307342</v>
       </c>
       <c r="Q30" t="n">
-        <v>2080.91831916106</v>
+        <v>1993.392635665897</v>
       </c>
       <c r="R30" t="n">
         <v>2080.91831916106</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>909.5077282221378</v>
+        <v>669.6526236093854</v>
       </c>
       <c r="C31" t="n">
-        <v>738.4143557838543</v>
+        <v>498.5592511711019</v>
       </c>
       <c r="D31" t="n">
-        <v>578.9197111067642</v>
+        <v>498.5592511711019</v>
       </c>
       <c r="E31" t="n">
-        <v>418.0088959750838</v>
+        <v>498.5592511711019</v>
       </c>
       <c r="F31" t="n">
-        <v>253.377770085675</v>
+        <v>345.7075685018362</v>
       </c>
       <c r="G31" t="n">
-        <v>86.92598458036791</v>
+        <v>179.2557829965291</v>
       </c>
       <c r="H31" t="n">
-        <v>86.92598458036791</v>
+        <v>179.2557829965291</v>
       </c>
       <c r="I31" t="n">
         <v>86.92598458036791</v>
@@ -6648,25 +6648,25 @@
         <v>2392.278402684531</v>
       </c>
       <c r="S31" t="n">
-        <v>2219.804151619527</v>
+        <v>2392.278402684531</v>
       </c>
       <c r="T31" t="n">
-        <v>2113.242404919338</v>
+        <v>2156.141887456689</v>
       </c>
       <c r="U31" t="n">
-        <v>2113.242404919338</v>
+        <v>1873.387300306585</v>
       </c>
       <c r="V31" t="n">
-        <v>1839.35665985886</v>
+        <v>1599.501555246107</v>
       </c>
       <c r="W31" t="n">
-        <v>1560.286995367734</v>
+        <v>1320.431890754982</v>
       </c>
       <c r="X31" t="n">
-        <v>1321.943133227418</v>
+        <v>1082.088028614665</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.207434616182</v>
+        <v>857.3523300034298</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2143.982059532028</v>
+        <v>2454.223168703601</v>
       </c>
       <c r="C32" t="n">
-        <v>1733.857468845298</v>
+        <v>2044.098578016872</v>
       </c>
       <c r="D32" t="n">
-        <v>1329.393538938359</v>
+        <v>1639.634648109932</v>
       </c>
       <c r="E32" t="n">
         <v>1225.294432626829</v>
@@ -6700,25 +6700,25 @@
         <v>86.92598458036791</v>
       </c>
       <c r="J32" t="n">
-        <v>162.4339639091909</v>
+        <v>489.2097907969201</v>
       </c>
       <c r="K32" t="n">
-        <v>296.1499513883049</v>
+        <v>1249.330305161558</v>
       </c>
       <c r="L32" t="n">
-        <v>1284.103615279495</v>
+        <v>2237.283969052748</v>
       </c>
       <c r="M32" t="n">
-        <v>2359.812674461547</v>
+        <v>3107.219568065846</v>
       </c>
       <c r="N32" t="n">
-        <v>3424.345034890971</v>
+        <v>3326.587744007598</v>
       </c>
       <c r="O32" t="n">
-        <v>3938.624584345524</v>
+        <v>3528.330111195072</v>
       </c>
       <c r="P32" t="n">
-        <v>4096.834121917533</v>
+        <v>3686.539648767081</v>
       </c>
       <c r="Q32" t="n">
         <v>4196.132933464601</v>
@@ -6727,25 +6727,25 @@
         <v>4346.299229018396</v>
       </c>
       <c r="S32" t="n">
-        <v>4346.299229018396</v>
+        <v>4251.587973413285</v>
       </c>
       <c r="T32" t="n">
-        <v>4346.299229018396</v>
+        <v>4037.17498953798</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.381165607826</v>
+        <v>4037.17498953798</v>
       </c>
       <c r="V32" t="n">
-        <v>3739.543610944307</v>
+        <v>4037.17498953798</v>
       </c>
       <c r="W32" t="n">
-        <v>3355.783310079475</v>
+        <v>3653.414688673149</v>
       </c>
       <c r="X32" t="n">
-        <v>2955.139912248428</v>
+        <v>3252.771290842101</v>
       </c>
       <c r="Y32" t="n">
-        <v>2554.203239196518</v>
+        <v>2864.444348368091</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>86.92598458036791</v>
       </c>
       <c r="I33" t="n">
-        <v>86.92598458036791</v>
+        <v>98.73456739712276</v>
       </c>
       <c r="J33" t="n">
-        <v>124.276791769589</v>
+        <v>379.7537785609771</v>
       </c>
       <c r="K33" t="n">
-        <v>219.7679744186021</v>
+        <v>717.9667256219159</v>
       </c>
       <c r="L33" t="n">
-        <v>1083.569833493939</v>
+        <v>865.1270342052243</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.138504117094</v>
+        <v>1044.695704828379</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.295324319266</v>
+        <v>1234.852525030551</v>
       </c>
       <c r="O33" t="n">
-        <v>1618.252647598493</v>
+        <v>1399.809848309778</v>
       </c>
       <c r="P33" t="n">
-        <v>2017.868591806279</v>
+        <v>1524.372751307342</v>
       </c>
       <c r="Q33" t="n">
-        <v>2080.91831916106</v>
+        <v>1993.392635665897</v>
       </c>
       <c r="R33" t="n">
         <v>2080.91831916106</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>447.8138646289927</v>
+        <v>497.1783725443821</v>
       </c>
       <c r="C34" t="n">
-        <v>276.7204921907093</v>
+        <v>326.0850001060986</v>
       </c>
       <c r="D34" t="n">
-        <v>117.2258475136193</v>
+        <v>326.0850001060986</v>
       </c>
       <c r="E34" t="n">
-        <v>117.2258475136193</v>
+        <v>326.0850001060986</v>
       </c>
       <c r="F34" t="n">
-        <v>86.92598458036791</v>
+        <v>253.377770085675</v>
       </c>
       <c r="G34" t="n">
         <v>86.92598458036791</v>
@@ -6882,28 +6882,28 @@
         <v>2392.278402684531</v>
       </c>
       <c r="R34" t="n">
-        <v>2342.913894769141</v>
+        <v>2392.278402684531</v>
       </c>
       <c r="S34" t="n">
-        <v>2170.439643704138</v>
+        <v>2219.804151619527</v>
       </c>
       <c r="T34" t="n">
-        <v>1934.303128476297</v>
+        <v>1983.667636391686</v>
       </c>
       <c r="U34" t="n">
-        <v>1651.548541326193</v>
+        <v>1700.913049241582</v>
       </c>
       <c r="V34" t="n">
-        <v>1377.662796265715</v>
+        <v>1427.027304181104</v>
       </c>
       <c r="W34" t="n">
-        <v>1098.593131774589</v>
+        <v>1147.957639689978</v>
       </c>
       <c r="X34" t="n">
-        <v>860.2492696342724</v>
+        <v>909.6137775496618</v>
       </c>
       <c r="Y34" t="n">
-        <v>635.5135710230371</v>
+        <v>684.8780789384265</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1353.583744065718</v>
+        <v>1301.500882697011</v>
       </c>
       <c r="C35" t="n">
-        <v>1353.583744065718</v>
+        <v>891.3762920102807</v>
       </c>
       <c r="D35" t="n">
-        <v>949.1198141587781</v>
+        <v>891.3762920102807</v>
       </c>
       <c r="E35" t="n">
-        <v>534.7795986756748</v>
+        <v>891.3762920102807</v>
       </c>
       <c r="F35" t="n">
-        <v>113.7491866293624</v>
+        <v>470.3458799639683</v>
       </c>
       <c r="G35" t="n">
-        <v>113.7491866293624</v>
+        <v>64.76266884992009</v>
       </c>
       <c r="H35" t="n">
         <v>64.76266884992009</v>
@@ -6946,19 +6946,19 @@
         <v>763.8795222251395</v>
       </c>
       <c r="M35" t="n">
-        <v>977.9157754286186</v>
+        <v>1240.316432760493</v>
       </c>
       <c r="N35" t="n">
-        <v>1197.283951370371</v>
+        <v>1459.684608702245</v>
       </c>
       <c r="O35" t="n">
-        <v>1399.026318557845</v>
+        <v>1661.426975889719</v>
       </c>
       <c r="P35" t="n">
-        <v>1981.245424150478</v>
+        <v>1819.636513461728</v>
       </c>
       <c r="Q35" t="n">
-        <v>2202.234131083107</v>
+        <v>2329.229798159248</v>
       </c>
       <c r="R35" t="n">
         <v>2352.400426636901</v>
@@ -6967,22 +6967,22 @@
         <v>2352.400426636901</v>
       </c>
       <c r="T35" t="n">
-        <v>2137.987442761596</v>
+        <v>2352.400426636901</v>
       </c>
       <c r="U35" t="n">
-        <v>2137.987442761596</v>
+        <v>2095.482363226331</v>
       </c>
       <c r="V35" t="n">
-        <v>2137.987442761596</v>
+        <v>2095.482363226331</v>
       </c>
       <c r="W35" t="n">
-        <v>1754.227141896765</v>
+        <v>1711.7220623615</v>
       </c>
       <c r="X35" t="n">
-        <v>1353.583744065718</v>
+        <v>1711.7220623615</v>
       </c>
       <c r="Y35" t="n">
-        <v>1353.583744065718</v>
+        <v>1711.7220623615</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>47.04800853273802</v>
       </c>
       <c r="I36" t="n">
-        <v>47.04800853273802</v>
+        <v>58.85659134949287</v>
       </c>
       <c r="J36" t="n">
-        <v>328.0672196965924</v>
+        <v>339.8758025133472</v>
       </c>
       <c r="K36" t="n">
-        <v>423.5584023456054</v>
+        <v>435.3669851623603</v>
       </c>
       <c r="L36" t="n">
-        <v>916.0944636870524</v>
+        <v>582.5272937456687</v>
       </c>
       <c r="M36" t="n">
-        <v>1498.313569279685</v>
+        <v>762.0959643688237</v>
       </c>
       <c r="N36" t="n">
-        <v>1688.470389481857</v>
+        <v>952.2527845709958</v>
       </c>
       <c r="O36" t="n">
-        <v>1853.427712761084</v>
+        <v>1117.210107850223</v>
       </c>
       <c r="P36" t="n">
-        <v>1977.990615758648</v>
+        <v>1484.494775259712</v>
       </c>
       <c r="Q36" t="n">
-        <v>2041.040343113429</v>
+        <v>1953.514659618267</v>
       </c>
       <c r="R36" t="n">
         <v>2041.040343113429</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>644.0724038092043</v>
+        <v>768.7421779427189</v>
       </c>
       <c r="C37" t="n">
-        <v>472.9790313709208</v>
+        <v>768.7421779427189</v>
       </c>
       <c r="D37" t="n">
-        <v>313.4843866938308</v>
+        <v>609.2475332656288</v>
       </c>
       <c r="E37" t="n">
-        <v>152.5735715621503</v>
+        <v>448.3367181339482</v>
       </c>
       <c r="F37" t="n">
-        <v>47.04800853273802</v>
+        <v>448.3367181339482</v>
       </c>
       <c r="G37" t="n">
-        <v>47.04800853273802</v>
+        <v>281.8849326286411</v>
       </c>
       <c r="H37" t="n">
-        <v>47.04800853273802</v>
+        <v>139.3778069488992</v>
       </c>
       <c r="I37" t="n">
         <v>47.04800853273802</v>
@@ -7125,22 +7125,22 @@
         <v>2130.561667656508</v>
       </c>
       <c r="T37" t="n">
-        <v>2130.561667656508</v>
+        <v>1894.425152428667</v>
       </c>
       <c r="U37" t="n">
-        <v>1847.807080506404</v>
+        <v>1693.407190148793</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.921335445926</v>
+        <v>1419.521445088315</v>
       </c>
       <c r="W37" t="n">
-        <v>1294.851670954801</v>
+        <v>1419.521445088315</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.507808814484</v>
+        <v>1181.177582947998</v>
       </c>
       <c r="Y37" t="n">
-        <v>831.7721102032486</v>
+        <v>956.4418843367632</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2103.955086638985</v>
+        <v>474.88725953665</v>
       </c>
       <c r="C38" t="n">
-        <v>1693.830495952255</v>
+        <v>64.76266884992009</v>
       </c>
       <c r="D38" t="n">
-        <v>1289.366566045315</v>
+        <v>64.76266884992009</v>
       </c>
       <c r="E38" t="n">
-        <v>875.0263505622122</v>
+        <v>64.76266884992009</v>
       </c>
       <c r="F38" t="n">
-        <v>453.9959385158998</v>
+        <v>64.76266884992009</v>
       </c>
       <c r="G38" t="n">
-        <v>47.04800853273802</v>
+        <v>64.76266884992009</v>
       </c>
       <c r="H38" t="n">
-        <v>47.04800853273802</v>
+        <v>64.76266884992009</v>
       </c>
       <c r="I38" t="n">
         <v>47.04800853273802</v>
       </c>
       <c r="J38" t="n">
-        <v>122.555987861561</v>
+        <v>449.3318147492902</v>
       </c>
       <c r="K38" t="n">
-        <v>256.271975340675</v>
+        <v>718.4527924841373</v>
       </c>
       <c r="L38" t="n">
-        <v>437.1036953374102</v>
+        <v>899.2845124808725</v>
       </c>
       <c r="M38" t="n">
-        <v>1019.322800930043</v>
+        <v>1113.320765684352</v>
       </c>
       <c r="N38" t="n">
-        <v>1238.690976871796</v>
+        <v>1332.688941626104</v>
       </c>
       <c r="O38" t="n">
-        <v>1820.910082464429</v>
+        <v>1534.431308813578</v>
       </c>
       <c r="P38" t="n">
-        <v>2229.93098661218</v>
+        <v>1692.640846385586</v>
       </c>
       <c r="Q38" t="n">
-        <v>2329.229798159248</v>
+        <v>2202.234131083107</v>
       </c>
       <c r="R38" t="n">
         <v>2352.400426636901</v>
@@ -7207,19 +7207,19 @@
         <v>2352.400426636901</v>
       </c>
       <c r="U38" t="n">
-        <v>2352.400426636901</v>
+        <v>2095.482363226331</v>
       </c>
       <c r="V38" t="n">
-        <v>2352.400426636901</v>
+        <v>1745.644808562812</v>
       </c>
       <c r="W38" t="n">
-        <v>2352.400426636901</v>
+        <v>1361.884507697981</v>
       </c>
       <c r="X38" t="n">
-        <v>2352.400426636901</v>
+        <v>961.2411098669334</v>
       </c>
       <c r="Y38" t="n">
-        <v>2352.400426636901</v>
+        <v>885.1084392011394</v>
       </c>
     </row>
     <row r="39">
@@ -7271,10 +7271,10 @@
         <v>1117.210107850223</v>
       </c>
       <c r="P39" t="n">
-        <v>1572.020458754875</v>
+        <v>1484.494775259712</v>
       </c>
       <c r="Q39" t="n">
-        <v>2041.040343113429</v>
+        <v>1953.514659618267</v>
       </c>
       <c r="R39" t="n">
         <v>2041.040343113429</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>710.1351074974179</v>
+        <v>868.1185097020725</v>
       </c>
       <c r="C40" t="n">
-        <v>539.0417350591345</v>
+        <v>697.025137263789</v>
       </c>
       <c r="D40" t="n">
-        <v>539.0417350591345</v>
+        <v>537.530492586699</v>
       </c>
       <c r="E40" t="n">
-        <v>378.1309199274539</v>
+        <v>376.6196774550185</v>
       </c>
       <c r="F40" t="n">
-        <v>213.4997940380451</v>
+        <v>211.9885515656097</v>
       </c>
       <c r="G40" t="n">
         <v>47.04800853273802</v>
@@ -7332,13 +7332,13 @@
         <v>47.04800853273802</v>
       </c>
       <c r="J40" t="n">
-        <v>116.4683895434118</v>
+        <v>116.4683895434114</v>
       </c>
       <c r="K40" t="n">
-        <v>361.9577737035838</v>
+        <v>361.9577737035837</v>
       </c>
       <c r="L40" t="n">
-        <v>738.2229976914675</v>
+        <v>738.2229976914673</v>
       </c>
       <c r="M40" t="n">
         <v>1150.180924566961</v>
@@ -7356,28 +7356,28 @@
         <v>2352.400426636901</v>
       </c>
       <c r="R40" t="n">
-        <v>2303.035918721512</v>
+        <v>2352.400426636901</v>
       </c>
       <c r="S40" t="n">
-        <v>2303.035918721512</v>
+        <v>2352.400426636901</v>
       </c>
       <c r="T40" t="n">
-        <v>2196.624371344722</v>
+        <v>2116.26391140906</v>
       </c>
       <c r="U40" t="n">
-        <v>1913.869784194618</v>
+        <v>1833.509324258956</v>
       </c>
       <c r="V40" t="n">
-        <v>1639.98403913414</v>
+        <v>1559.623579198478</v>
       </c>
       <c r="W40" t="n">
-        <v>1360.914374643014</v>
+        <v>1280.553914707352</v>
       </c>
       <c r="X40" t="n">
-        <v>1122.570512502698</v>
+        <v>1280.553914707352</v>
       </c>
       <c r="Y40" t="n">
-        <v>897.8348138914623</v>
+        <v>1055.818216096117</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1298.242938867429</v>
+        <v>465.3563114142354</v>
       </c>
       <c r="C41" t="n">
-        <v>1298.242938867429</v>
+        <v>465.3563114142354</v>
       </c>
       <c r="D41" t="n">
-        <v>893.7790089604895</v>
+        <v>465.3563114142354</v>
       </c>
       <c r="E41" t="n">
-        <v>479.4387934773862</v>
+        <v>465.3563114142354</v>
       </c>
       <c r="F41" t="n">
-        <v>58.40838143107374</v>
+        <v>465.3563114142354</v>
       </c>
       <c r="G41" t="n">
         <v>58.40838143107374</v>
@@ -7411,25 +7411,25 @@
         <v>40.69372111389167</v>
       </c>
       <c r="J41" t="n">
-        <v>116.2017004427147</v>
+        <v>442.9775273304438</v>
       </c>
       <c r="K41" t="n">
-        <v>249.9176879218286</v>
+        <v>576.6935148095579</v>
       </c>
       <c r="L41" t="n">
-        <v>430.7494079185639</v>
+        <v>757.5252348062932</v>
       </c>
       <c r="M41" t="n">
-        <v>644.7856611220431</v>
+        <v>971.5614880097723</v>
       </c>
       <c r="N41" t="n">
-        <v>1079.893782621837</v>
+        <v>1190.929663951525</v>
       </c>
       <c r="O41" t="n">
-        <v>1281.636149809312</v>
+        <v>1392.672031138999</v>
       </c>
       <c r="P41" t="n">
-        <v>1785.220948593721</v>
+        <v>1550.881568711007</v>
       </c>
       <c r="Q41" t="n">
         <v>1884.519760140789</v>
@@ -7438,25 +7438,25 @@
         <v>2034.686055694583</v>
       </c>
       <c r="S41" t="n">
-        <v>2034.686055694583</v>
+        <v>1939.974800089473</v>
       </c>
       <c r="T41" t="n">
-        <v>2034.686055694583</v>
+        <v>1939.974800089473</v>
       </c>
       <c r="U41" t="n">
-        <v>2034.686055694583</v>
+        <v>1683.056736678903</v>
       </c>
       <c r="V41" t="n">
-        <v>2034.686055694583</v>
+        <v>1683.056736678903</v>
       </c>
       <c r="W41" t="n">
-        <v>2034.686055694583</v>
+        <v>1299.296435814072</v>
       </c>
       <c r="X41" t="n">
-        <v>2034.686055694583</v>
+        <v>898.6530379830247</v>
       </c>
       <c r="Y41" t="n">
-        <v>1708.464118531919</v>
+        <v>497.7163649311148</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>688.6235442180055</v>
+        <v>688.6235442180053</v>
       </c>
       <c r="C42" t="n">
-        <v>554.6284729669512</v>
+        <v>554.6284729669511</v>
       </c>
       <c r="D42" t="n">
-        <v>437.7313151863436</v>
+        <v>437.7313151863434</v>
       </c>
       <c r="E42" t="n">
-        <v>317.2384991786716</v>
+        <v>317.2384991786714</v>
       </c>
       <c r="F42" t="n">
-        <v>208.2786193611763</v>
+        <v>208.278619361176</v>
       </c>
       <c r="G42" t="n">
         <v>102.2410801108263</v>
@@ -7487,31 +7487,31 @@
         <v>40.69372111389167</v>
       </c>
       <c r="I42" t="n">
-        <v>40.69372111389167</v>
+        <v>52.50230393064652</v>
       </c>
       <c r="J42" t="n">
-        <v>321.712932277746</v>
+        <v>333.5215150945008</v>
       </c>
       <c r="K42" t="n">
-        <v>786.2084068675299</v>
+        <v>429.0126977435139</v>
       </c>
       <c r="L42" t="n">
-        <v>933.3687154508383</v>
+        <v>886.2374522373392</v>
       </c>
       <c r="M42" t="n">
-        <v>1112.937386073993</v>
+        <v>1065.806122860494</v>
       </c>
       <c r="N42" t="n">
-        <v>1303.094206276165</v>
+        <v>1255.962943062666</v>
       </c>
       <c r="O42" t="n">
-        <v>1468.051529555392</v>
+        <v>1759.547741847076</v>
       </c>
       <c r="P42" t="n">
-        <v>1971.636328339802</v>
+        <v>1884.11064484464</v>
       </c>
       <c r="Q42" t="n">
-        <v>2034.686055694583</v>
+        <v>1947.160372199421</v>
       </c>
       <c r="R42" t="n">
         <v>2034.686055694583</v>
@@ -7526,16 +7526,16 @@
         <v>1591.599213621507</v>
       </c>
       <c r="V42" t="n">
-        <v>1377.887686614541</v>
+        <v>1377.88768661454</v>
       </c>
       <c r="W42" t="n">
         <v>1164.654518350869</v>
       </c>
       <c r="X42" t="n">
-        <v>988.3285364897621</v>
+        <v>988.328536489762</v>
       </c>
       <c r="Y42" t="n">
-        <v>828.9265768535921</v>
+        <v>828.926576853592</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.112388851565</v>
+        <v>435.0252898868847</v>
       </c>
       <c r="C43" t="n">
-        <v>927.0190164132812</v>
+        <v>435.0252898868847</v>
       </c>
       <c r="D43" t="n">
-        <v>767.5243717361911</v>
+        <v>275.5306452097947</v>
       </c>
       <c r="E43" t="n">
-        <v>606.6135566045106</v>
+        <v>275.5306452097947</v>
       </c>
       <c r="F43" t="n">
-        <v>441.9824307151018</v>
+        <v>275.5306452097947</v>
       </c>
       <c r="G43" t="n">
         <v>275.5306452097947</v>
@@ -7572,49 +7572,49 @@
         <v>110.1141021245651</v>
       </c>
       <c r="K43" t="n">
-        <v>170.5173629671031</v>
+        <v>355.6034862847374</v>
       </c>
       <c r="L43" t="n">
-        <v>546.7825869549866</v>
+        <v>731.868710272621</v>
       </c>
       <c r="M43" t="n">
-        <v>958.74051383048</v>
+        <v>832.466553624643</v>
       </c>
       <c r="N43" t="n">
-        <v>1359.355780655071</v>
+        <v>1233.081820449234</v>
       </c>
       <c r="O43" t="n">
-        <v>1729.549360738744</v>
+        <v>1603.275400532907</v>
       </c>
       <c r="P43" t="n">
-        <v>2029.890419051758</v>
+        <v>1903.616458845921</v>
       </c>
       <c r="Q43" t="n">
         <v>2034.686055694583</v>
       </c>
       <c r="R43" t="n">
-        <v>2034.686055694583</v>
+        <v>1985.321547779194</v>
       </c>
       <c r="S43" t="n">
-        <v>2034.686055694583</v>
+        <v>1812.84729671419</v>
       </c>
       <c r="T43" t="n">
-        <v>2034.686055694583</v>
+        <v>1576.710781486349</v>
       </c>
       <c r="U43" t="n">
-        <v>2034.686055694583</v>
+        <v>1293.956194336245</v>
       </c>
       <c r="V43" t="n">
-        <v>2027.961320488286</v>
+        <v>1020.070449275767</v>
       </c>
       <c r="W43" t="n">
-        <v>1748.891655997161</v>
+        <v>741.0007847846416</v>
       </c>
       <c r="X43" t="n">
-        <v>1510.547793856844</v>
+        <v>502.656922644325</v>
       </c>
       <c r="Y43" t="n">
-        <v>1285.812095245609</v>
+        <v>435.0252898868847</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>461.7241331602041</v>
+        <v>1213.517453745192</v>
       </c>
       <c r="C44" t="n">
-        <v>461.7241331602041</v>
+        <v>1213.517453745192</v>
       </c>
       <c r="D44" t="n">
-        <v>461.7241331602041</v>
+        <v>1213.517453745192</v>
       </c>
       <c r="E44" t="n">
-        <v>461.7241331602041</v>
+        <v>1179.062169160353</v>
       </c>
       <c r="F44" t="n">
-        <v>40.69372111389167</v>
+        <v>758.0317571140401</v>
       </c>
       <c r="G44" t="n">
-        <v>40.69372111389167</v>
+        <v>351.0838271308785</v>
       </c>
       <c r="H44" t="n">
-        <v>40.69372111389167</v>
+        <v>58.40838143107376</v>
       </c>
       <c r="I44" t="n">
-        <v>40.69372111389167</v>
+        <v>40.6937211138917</v>
       </c>
       <c r="J44" t="n">
-        <v>116.2017004427147</v>
+        <v>197.3428726589685</v>
       </c>
       <c r="K44" t="n">
-        <v>290.8108689590767</v>
+        <v>331.0588601380825</v>
       </c>
       <c r="L44" t="n">
-        <v>471.6425889558119</v>
+        <v>834.6436589224922</v>
       </c>
       <c r="M44" t="n">
-        <v>685.6788421592911</v>
+        <v>1048.679912125971</v>
       </c>
       <c r="N44" t="n">
-        <v>905.0470181010434</v>
+        <v>1552.264710910381</v>
       </c>
       <c r="O44" t="n">
-        <v>1408.631816885453</v>
+        <v>1754.007078097855</v>
       </c>
       <c r="P44" t="n">
-        <v>1912.216615669862</v>
+        <v>1912.216615669864</v>
       </c>
       <c r="Q44" t="n">
-        <v>2011.51542721693</v>
+        <v>2011.515427216931</v>
       </c>
       <c r="R44" t="n">
-        <v>2034.686055694583</v>
+        <v>2034.686055694585</v>
       </c>
       <c r="S44" t="n">
-        <v>2034.686055694583</v>
+        <v>2034.686055694585</v>
       </c>
       <c r="T44" t="n">
-        <v>1820.273071819279</v>
+        <v>1820.27307181928</v>
       </c>
       <c r="U44" t="n">
-        <v>1820.273071819279</v>
+        <v>1563.355008408711</v>
       </c>
       <c r="V44" t="n">
-        <v>1820.273071819279</v>
+        <v>1213.517453745192</v>
       </c>
       <c r="W44" t="n">
-        <v>1673.525383707651</v>
+        <v>1213.517453745192</v>
       </c>
       <c r="X44" t="n">
-        <v>1272.881985876603</v>
+        <v>1213.517453745192</v>
       </c>
       <c r="Y44" t="n">
-        <v>871.9453128246936</v>
+        <v>1213.517453745192</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>688.6235442180053</v>
+        <v>688.6235442180055</v>
       </c>
       <c r="C45" t="n">
-        <v>554.6284729669511</v>
+        <v>554.6284729669512</v>
       </c>
       <c r="D45" t="n">
-        <v>437.7313151863434</v>
+        <v>437.7313151863436</v>
       </c>
       <c r="E45" t="n">
-        <v>317.2384991786714</v>
+        <v>317.2384991786716</v>
       </c>
       <c r="F45" t="n">
-        <v>208.278619361176</v>
+        <v>208.2786193611763</v>
       </c>
       <c r="G45" t="n">
         <v>102.2410801108263</v>
       </c>
       <c r="H45" t="n">
-        <v>40.69372111389167</v>
+        <v>40.6937211138917</v>
       </c>
       <c r="I45" t="n">
-        <v>52.50230393064652</v>
+        <v>40.6937211138917</v>
       </c>
       <c r="J45" t="n">
-        <v>333.5215150945008</v>
+        <v>246.7670505222526</v>
       </c>
       <c r="K45" t="n">
-        <v>429.0126977435139</v>
+        <v>342.2582331712657</v>
       </c>
       <c r="L45" t="n">
-        <v>932.5974965279233</v>
+        <v>845.8430319556754</v>
       </c>
       <c r="M45" t="n">
-        <v>1112.937386073994</v>
+        <v>1025.41170257883</v>
       </c>
       <c r="N45" t="n">
-        <v>1303.094206276166</v>
+        <v>1215.568522781002</v>
       </c>
       <c r="O45" t="n">
-        <v>1468.051529555393</v>
+        <v>1380.525846060229</v>
       </c>
       <c r="P45" t="n">
-        <v>1971.636328339802</v>
+        <v>1884.110644844639</v>
       </c>
       <c r="Q45" t="n">
-        <v>2034.686055694583</v>
+        <v>1947.16037219942</v>
       </c>
       <c r="R45" t="n">
         <v>2034.686055694583</v>
@@ -7763,16 +7763,16 @@
         <v>1591.599213621507</v>
       </c>
       <c r="V45" t="n">
-        <v>1377.88768661454</v>
+        <v>1377.887686614541</v>
       </c>
       <c r="W45" t="n">
         <v>1164.654518350869</v>
       </c>
       <c r="X45" t="n">
-        <v>988.328536489762</v>
+        <v>988.3285364897621</v>
       </c>
       <c r="Y45" t="n">
-        <v>828.926576853592</v>
+        <v>828.9265768535921</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>200.1883657909817</v>
+        <v>777.7069290427942</v>
       </c>
       <c r="C46" t="n">
-        <v>200.1883657909817</v>
+        <v>606.6135566045107</v>
       </c>
       <c r="D46" t="n">
-        <v>40.69372111389167</v>
+        <v>606.6135566045107</v>
       </c>
       <c r="E46" t="n">
-        <v>40.69372111389167</v>
+        <v>606.6135566045107</v>
       </c>
       <c r="F46" t="n">
-        <v>40.69372111389167</v>
+        <v>441.9824307151019</v>
       </c>
       <c r="G46" t="n">
-        <v>40.69372111389167</v>
+        <v>275.5306452097948</v>
       </c>
       <c r="H46" t="n">
-        <v>40.69372111389167</v>
+        <v>133.0235195300529</v>
       </c>
       <c r="I46" t="n">
-        <v>40.69372111389167</v>
+        <v>40.6937211138917</v>
       </c>
       <c r="J46" t="n">
-        <v>45.11273849322867</v>
+        <v>110.1141021245651</v>
       </c>
       <c r="K46" t="n">
-        <v>290.602122653401</v>
+        <v>355.6034862847374</v>
       </c>
       <c r="L46" t="n">
-        <v>666.8673466412846</v>
+        <v>731.868710272621</v>
       </c>
       <c r="M46" t="n">
-        <v>958.74051383048</v>
+        <v>832.4665536246446</v>
       </c>
       <c r="N46" t="n">
-        <v>1359.355780655071</v>
+        <v>1233.081820449235</v>
       </c>
       <c r="O46" t="n">
-        <v>1729.549360738744</v>
+        <v>1603.275400532908</v>
       </c>
       <c r="P46" t="n">
-        <v>2029.890419051758</v>
+        <v>1903.616458845923</v>
       </c>
       <c r="Q46" t="n">
-        <v>2034.686055694583</v>
+        <v>2034.686055694585</v>
       </c>
       <c r="R46" t="n">
-        <v>1985.321547779194</v>
+        <v>1985.321547779195</v>
       </c>
       <c r="S46" t="n">
-        <v>1812.84729671419</v>
+        <v>1812.847296714192</v>
       </c>
       <c r="T46" t="n">
-        <v>1576.710781486349</v>
+        <v>1577.87504282434</v>
       </c>
       <c r="U46" t="n">
-        <v>1403.923042488182</v>
+        <v>1295.120455674236</v>
       </c>
       <c r="V46" t="n">
-        <v>1130.037297427704</v>
+        <v>1295.120455674236</v>
       </c>
       <c r="W46" t="n">
-        <v>850.967632936578</v>
+        <v>1016.050791183111</v>
       </c>
       <c r="X46" t="n">
-        <v>612.6237707962614</v>
+        <v>777.7069290427942</v>
       </c>
       <c r="Y46" t="n">
-        <v>387.8880721850261</v>
+        <v>777.7069290427942</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>103.0750453276097</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>103.1091040848916</v>
       </c>
       <c r="O2" t="n">
         <v>103.3865889540554</v>
@@ -8002,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>97.50895614299576</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>65.61060365517967</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>67.76109706668967</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>67.94829232827223</v>
+        <v>67.53629987056428</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>64.45644833107599</v>
       </c>
       <c r="Q3" t="n">
         <v>66.88943183311096</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>69.19701243367766</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,25 +8139,25 @@
         <v>51.43314568295542</v>
       </c>
       <c r="K4" t="n">
-        <v>62.44718288733907</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L4" t="n">
-        <v>64.41311476446579</v>
+        <v>64.82510722217376</v>
       </c>
       <c r="M4" t="n">
         <v>56.26494249878004</v>
       </c>
       <c r="N4" t="n">
-        <v>51.71264550841944</v>
+        <v>61.90945883669168</v>
       </c>
       <c r="O4" t="n">
-        <v>66.27171140126856</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P4" t="n">
         <v>65.97665496817703</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>71.14434653048984</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>99.33320300148937</v>
       </c>
       <c r="L5" t="n">
-        <v>105.2702189334091</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
@@ -8230,16 +8230,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>103.3865889540554</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8461766091564</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.2306177274243</v>
+        <v>99.81862526971632</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>97.50895614299576</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>65.61060365517967</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
@@ -8306,19 +8306,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>63.39020672202223</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>67.94829232827223</v>
+        <v>67.53629987056428</v>
       </c>
       <c r="P6" t="n">
         <v>64.45644833107599</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>66.88943183311096</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>69.19701243367766</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>61.62995901122766</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K7" t="n">
         <v>52.25036955906683</v>
       </c>
       <c r="L7" t="n">
-        <v>64.82510722217376</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M7" t="n">
-        <v>66.04976336934432</v>
+        <v>66.46175582705229</v>
       </c>
       <c r="N7" t="n">
-        <v>51.71264550841944</v>
+        <v>61.90945883669168</v>
       </c>
       <c r="O7" t="n">
-        <v>66.27171140126856</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P7" t="n">
-        <v>55.77984163990478</v>
+        <v>65.56466251046906</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.35952565992557</v>
+        <v>71.55633898819781</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>83.10841220387222</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>99.33320300148937</v>
       </c>
       <c r="L8" t="n">
-        <v>105.2702189334091</v>
+        <v>105.6822113911171</v>
       </c>
       <c r="M8" t="n">
         <v>103.4870377853177</v>
       </c>
       <c r="N8" t="n">
-        <v>103.1091040848916</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
@@ -8473,7 +8473,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>100.2306177274243</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8537,25 +8537,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>66.31133713912129</v>
+        <v>65.89934468141333</v>
       </c>
       <c r="M9" t="n">
-        <v>67.76109706668967</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>62.97821426431427</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>67.94829232827223</v>
       </c>
       <c r="P9" t="n">
-        <v>64.45644833107599</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>66.88943183311096</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>69.19701243367766</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,19 +8610,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>61.62995901122766</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K10" t="n">
         <v>52.25036955906683</v>
       </c>
       <c r="L10" t="n">
-        <v>54.62829389390151</v>
+        <v>64.41311476446579</v>
       </c>
       <c r="M10" t="n">
         <v>66.46175582705229</v>
       </c>
       <c r="N10" t="n">
-        <v>61.49746637898372</v>
+        <v>61.90945883669168</v>
       </c>
       <c r="O10" t="n">
         <v>66.27171140126856</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>286.6918046558005</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>158.4133530637391</v>
       </c>
       <c r="Q11" t="n">
         <v>408.369684078123</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,22 +8774,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>245.1734994059852</v>
       </c>
       <c r="M12" t="n">
-        <v>327.2890183447013</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>327.9553467216612</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>2.645482536920817</v>
       </c>
       <c r="M13" t="n">
         <v>348.4508580952379</v>
@@ -8862,7 +8862,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
-        <v>277.773972840727</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>287.0874978208657</v>
       </c>
       <c r="O14" t="n">
-        <v>158.4133530637378</v>
+        <v>304.8913450474092</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>408.3696840781225</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>103.0826458656488</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.837597002972267</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>412.2157738741373</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>254.9564526232904</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>245.1734994059857</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9090,10 +9090,10 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
-        <v>2.645482536919268</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>348.4508580952379</v>
+        <v>33.94572322304452</v>
       </c>
       <c r="N16" t="n">
         <v>335.3881832803894</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>136.7727174300348</v>
       </c>
       <c r="L17" t="n">
-        <v>405.4418036322195</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>237.6087294174512</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>366.5160905564447</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.837597002972267</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>117.9561684785606</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>421.4765477913187</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>462.2789925202715</v>
+        <v>245.1734994059855</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4485181634532154</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,10 +9330,10 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>348.4508580952379</v>
+        <v>348.4508580952394</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803878</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
@@ -9406,22 +9406,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>405.4418036322195</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>109.3302778253894</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>366.5160905564447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>38.55681729579541</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>428.2924929501261</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9479,13 +9479,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>245.1734994059854</v>
       </c>
       <c r="L21" t="n">
-        <v>439.4533303124487</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>421.4765477913187</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>128.8539692553179</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>0.4485181634532154</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195423</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
         <v>208.3638319047618</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>204.2207265827385</v>
       </c>
       <c r="R23" t="n">
-        <v>62.83512849892939</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.837597002972267</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>245.1734994059854</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>277.8313547577986</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4485181634532154</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
-        <v>815.2746908024792</v>
+        <v>734.4773287044875</v>
       </c>
       <c r="M26" t="n">
-        <v>870.376571695529</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>853.701196452193</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>443.9725750941621</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>333.5832807142308</v>
+        <v>245.1734994059855</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0.4485181634532154</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>632.7318453389136</v>
+        <v>554.3518177214763</v>
       </c>
       <c r="L29" t="n">
         <v>815.2746908024792</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>206.5868817994921</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>245.1734994059856</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>743.654146374608</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>0.4485181634532154</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M32" t="n">
-        <v>870.376571695529</v>
+        <v>662.5245917268871</v>
       </c>
       <c r="N32" t="n">
-        <v>853.701196452193</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>315.6941235021002</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.837597002972267</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>245.1734994059856</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.8313547577993</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4485181634532154</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>265.0511690220952</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>428.2924929501261</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>122.9190862480412</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.837597002972267</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
@@ -10670,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>348.8643967253925</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>406.7176110802807</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>245.1734994059855</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>0.4485181634532154</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>136.7727174300334</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>371.9018711001553</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>384.3199377829887</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>253.3448147229733</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>333.5832807142303</v>
+        <v>245.1734994059855</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>0.4485181634532154</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11071,16 +11071,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>217.9191369273152</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>348.8639002145467</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>236.7064443259738</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.837597002972267</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>372.7316080209806</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>313.1964100106231</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>342.0479550557396</v>
       </c>
       <c r="P42" t="n">
-        <v>382.8503997846925</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4485181634532154</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,13 +11220,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>21.40815178593922</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>33.94572322304452</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11238,7 +11238,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>81.960780016418</v>
       </c>
       <c r="K44" t="n">
-        <v>41.30624347196772</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>326.013210896641</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>287.0874978208661</v>
       </c>
       <c r="O44" t="n">
-        <v>304.8913450474093</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>348.8639002145467</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>7.837597002972267</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>170.4267901203432</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>360.0247375768697</v>
+        <v>360.0247375768701</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7790090130458509</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>382.8503997846925</v>
+        <v>382.8503997846929</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.4485181634532154</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
@@ -11463,7 +11463,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>227.1531210383713</v>
+        <v>33.94572322304614</v>
       </c>
       <c r="N46" t="n">
         <v>335.3881832803894</v>
@@ -11475,7 +11475,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1190151089166</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.8784506833301</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.7486912428066</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.76414304905926</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.2688540365515</v>
+        <v>185.831017537018</v>
       </c>
       <c r="U11" t="n">
         <v>254.3488827764637</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>150.3603872518681</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.0820544229444</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.87086283623562</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>170.7495085543533</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>186.5908184820026</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>209.607206674407</v>
       </c>
       <c r="H14" t="n">
-        <v>32.20525585539747</v>
+        <v>289.7486912428066</v>
       </c>
       <c r="I14" t="n">
-        <v>17.53751371401025</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.2688540365515</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3488827764637</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.7872676502541</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.0820544229444</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.40650043199959</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.87086283623562</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>71.47905731776444</v>
+        <v>233.7751500755627</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>98.02788325353009</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>402.8784506833301</v>
       </c>
       <c r="H17" t="n">
-        <v>49.48748190484591</v>
+        <v>289.7486912428066</v>
       </c>
       <c r="I17" t="n">
-        <v>17.53751371401025</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>141.4703351498881</v>
       </c>
     </row>
     <row r="18">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>110.0593682849542</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>91.40650043199959</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>48.87086283623562</v>
       </c>
       <c r="S19" t="n">
-        <v>170.7495085543533</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.7751500755627</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>236.1699583460076</v>
+        <v>279.927041278603</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>402.8784506833301</v>
       </c>
       <c r="H20" t="n">
-        <v>289.7486912428066</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>17.53751371401025</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>93.76414304905926</v>
       </c>
       <c r="T20" t="n">
-        <v>212.2688540365515</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3488827764637</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>60.3707059297875</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>121.6682432900678</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>101.0501448271606</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.7872676502541</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>141.0820544229444</v>
       </c>
       <c r="I22" t="n">
-        <v>91.40650043199959</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.08505049168337</v>
+        <v>48.87086283623562</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.7751500755627</v>
       </c>
       <c r="U22" t="n">
-        <v>279.927041278603</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>289.7486912428066</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>93.76414304905926</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>190.087067709243</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>193.6772041449264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>3.681403491061644</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>141.0820544229444</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>91.40650043199959</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>48.87086283623562</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>170.7495085543533</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.7751500755627</v>
+        <v>164.0272771397702</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>207.0527272976237</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>266.8325160485839</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>91.13645525806464</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>48.87086283623562</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>170.7495085543533</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>190.0180671429664</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.927041278603</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>212.121347159592</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>289.7486912428066</v>
       </c>
       <c r="I29" t="n">
-        <v>17.53751371401025</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>229.6588608736022</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>11.66164878794169</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>141.0820544229444</v>
       </c>
       <c r="I31" t="n">
-        <v>91.40650043199959</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>48.87086283623562</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>170.7495085543533</v>
       </c>
       <c r="T31" t="n">
-        <v>128.2790208423752</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.927041278603</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>307.1386980798578</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>93.76414304905926</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.2688540365515</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3488827764637</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>12.48363327212036</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>132.9879503265958</v>
+        <v>91.0046569102953</v>
       </c>
       <c r="G34" t="n">
-        <v>164.7872676502541</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>141.0820544229444</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>48.87086283623562</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.8784506833301</v>
+        <v>1.351071680422365</v>
       </c>
       <c r="H35" t="n">
-        <v>241.2520386411587</v>
+        <v>289.7486912428066</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>93.76414304905926</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.2688540365515</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3488827764637</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>58.51450723139652</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>164.7872676502541</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>141.0820544229444</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>91.40650043199959</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.7751500755627</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>80.91925862152758</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>160.1580812699076</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.8784506833301</v>
       </c>
       <c r="H38" t="n">
         <v>289.7486912428066</v>
       </c>
       <c r="I38" t="n">
-        <v>17.53751371401025</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>212.2688540365515</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3488827764637</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>321.5559623622548</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.496130047711091</v>
       </c>
       <c r="H40" t="n">
         <v>141.0820544229444</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>48.87086283623562</v>
       </c>
       <c r="S40" t="n">
         <v>170.7495085543533</v>
       </c>
       <c r="T40" t="n">
-        <v>128.4277181725409</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.082514886134</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.8784506833301</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>289.7486912428066</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>93.76414304905926</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.2688540365515</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3488827764637</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>73.96758853035271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.7872676502541</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.87086283623562</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>170.7495085543533</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.7751500755627</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.927041278603</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>264.4893997556394</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>155.533025195257</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25873,19 +25873,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>376.0860815892815</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.8784506833301</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>289.7486912428066</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>17.53751371401025</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3488827764637</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>234.6424866256715</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.7872676502541</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>141.0820544229444</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>91.40650043199959</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.152618724609681</v>
       </c>
       <c r="U46" t="n">
-        <v>108.867179670417</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>451726.9855331678</v>
+        <v>451726.9855331679</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>451726.9855331676</v>
+        <v>451726.9855331679</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>494234.4991216594</v>
+        <v>494234.4991216596</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>494234.4991216591</v>
+        <v>494234.4991216594</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>699202.1235912989</v>
+        <v>699202.1235912992</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>699202.1235912989</v>
+        <v>699202.1235912992</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>699202.1235912989</v>
+        <v>699202.1235912992</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>494234.4991216595</v>
+        <v>494234.4991216593</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>451726.9855331678</v>
+        <v>451726.9855331682</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>471976.709462899</v>
+      </c>
+      <c r="C2" t="n">
         <v>471976.7094628989</v>
       </c>
-      <c r="C2" t="n">
-        <v>471976.7094628988</v>
-      </c>
       <c r="D2" t="n">
-        <v>471976.7094628988</v>
+        <v>471976.7094628989</v>
       </c>
       <c r="E2" t="n">
-        <v>290183.0921338311</v>
+        <v>290183.0921338308</v>
       </c>
       <c r="F2" t="n">
-        <v>290183.0921338308</v>
+        <v>290183.0921338309</v>
       </c>
       <c r="G2" t="n">
-        <v>313335.4854485443</v>
+        <v>313335.4854485446</v>
       </c>
       <c r="H2" t="n">
-        <v>313335.4854485446</v>
+        <v>313335.4854485444</v>
       </c>
       <c r="I2" t="n">
-        <v>427258.0501009099</v>
+        <v>427258.0501009097</v>
       </c>
       <c r="J2" t="n">
-        <v>424974.3619173947</v>
+        <v>424974.3619173946</v>
       </c>
       <c r="K2" t="n">
         <v>424974.3619173947</v>
       </c>
       <c r="L2" t="n">
-        <v>424974.3619173948</v>
+        <v>424974.3619173946</v>
       </c>
       <c r="M2" t="n">
-        <v>313335.4854485444</v>
+        <v>313335.4854485443</v>
       </c>
       <c r="N2" t="n">
         <v>313335.4854485444</v>
       </c>
       <c r="O2" t="n">
-        <v>290183.0921338309</v>
+        <v>290183.092133831</v>
       </c>
       <c r="P2" t="n">
-        <v>290183.0921338309</v>
+        <v>290183.092133831</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3417.186673010583</v>
+        <v>3417.186673010578</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21770.18583993128</v>
+        <v>21770.1858399313</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>135266.4376540899</v>
+        <v>135266.4376540898</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>343784.7571048397</v>
       </c>
       <c r="E4" t="n">
-        <v>41909.22641107555</v>
+        <v>41909.22641107556</v>
       </c>
       <c r="F4" t="n">
-        <v>41909.2264110755</v>
+        <v>41909.22641107556</v>
       </c>
       <c r="G4" t="n">
-        <v>51732.92010086241</v>
+        <v>51732.92010086251</v>
       </c>
       <c r="H4" t="n">
-        <v>51732.92010086241</v>
+        <v>51732.92010086247</v>
       </c>
       <c r="I4" t="n">
         <v>100070.9197317068</v>
@@ -26444,7 +26444,7 @@
         <v>99101.93769633412</v>
       </c>
       <c r="K4" t="n">
-        <v>99101.93769633411</v>
+        <v>99101.93769633413</v>
       </c>
       <c r="L4" t="n">
         <v>99101.93769633412</v>
@@ -26456,10 +26456,10 @@
         <v>51732.92010086247</v>
       </c>
       <c r="O4" t="n">
-        <v>41909.22641107555</v>
+        <v>41909.22641107556</v>
       </c>
       <c r="P4" t="n">
-        <v>41909.22641107556</v>
+        <v>41909.22641107561</v>
       </c>
     </row>
     <row r="5">
@@ -26481,13 +26481,13 @@
         <v>40485.09921925214</v>
       </c>
       <c r="F5" t="n">
-        <v>40485.09921925212</v>
+        <v>40485.09921925214</v>
       </c>
       <c r="G5" t="n">
-        <v>45314.35765757535</v>
+        <v>45314.3576575754</v>
       </c>
       <c r="H5" t="n">
-        <v>45314.35765757535</v>
+        <v>45314.35765757538</v>
       </c>
       <c r="I5" t="n">
         <v>76241.58570413303</v>
@@ -26511,7 +26511,7 @@
         <v>40485.09921925214</v>
       </c>
       <c r="P5" t="n">
-        <v>40485.09921925214</v>
+        <v>40485.09921925217</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90527.19943468971</v>
+        <v>90525.88139906485</v>
       </c>
       <c r="C6" t="n">
-        <v>93944.38610770024</v>
+        <v>93943.06807207537</v>
       </c>
       <c r="D6" t="n">
-        <v>93944.38610770024</v>
+        <v>93943.06807207537</v>
       </c>
       <c r="E6" t="n">
-        <v>-293284.3710800485</v>
+        <v>-293912.5636581877</v>
       </c>
       <c r="F6" t="n">
-        <v>207788.7665035031</v>
+        <v>207160.5739253642</v>
       </c>
       <c r="G6" t="n">
-        <v>194518.0218501752</v>
+        <v>193969.6651110527</v>
       </c>
       <c r="H6" t="n">
-        <v>216288.2076901068</v>
+        <v>215739.8509509841</v>
       </c>
       <c r="I6" t="n">
-        <v>115679.1070109802</v>
+        <v>115523.5867016932</v>
       </c>
       <c r="J6" t="n">
-        <v>250250.8047672865</v>
+        <v>250087.4096711598</v>
       </c>
       <c r="K6" t="n">
-        <v>250250.8047672866</v>
+        <v>250087.4096711598</v>
       </c>
       <c r="L6" t="n">
-        <v>250250.8047672866</v>
+        <v>250087.4096711598</v>
       </c>
       <c r="M6" t="n">
-        <v>216288.2076901066</v>
+        <v>215739.8509509838</v>
       </c>
       <c r="N6" t="n">
-        <v>216288.2076901066</v>
+        <v>215739.8509509839</v>
       </c>
       <c r="O6" t="n">
-        <v>207788.7665035033</v>
+        <v>207160.5739253643</v>
       </c>
       <c r="P6" t="n">
-        <v>207788.7665035032</v>
+        <v>207160.5739253642</v>
       </c>
     </row>
   </sheetData>
@@ -26801,13 +26801,13 @@
         <v>508.6715139236458</v>
       </c>
       <c r="F4" t="n">
-        <v>508.6715139236454</v>
+        <v>508.6715139236458</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1001066592248</v>
+        <v>588.1001066592256</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1001066592248</v>
+        <v>588.1001066592253</v>
       </c>
       <c r="I4" t="n">
         <v>1096.771620582871</v>
@@ -26831,7 +26831,7 @@
         <v>508.6715139236458</v>
       </c>
       <c r="P4" t="n">
-        <v>508.6715139236458</v>
+        <v>508.6715139236462</v>
       </c>
     </row>
   </sheetData>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>79.4285927355794</v>
+        <v>79.42859273557946</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>508.6715139236463</v>
+        <v>508.6715139236458</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>79.4285927355794</v>
+        <v>79.42859273557946</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>398.0244380138589</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27435,7 +27435,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>252.5143248369438</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27469,16 +27469,16 @@
         <v>109.091074519323</v>
       </c>
       <c r="F3" t="n">
-        <v>97.67346769104822</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>95.72339823053244</v>
       </c>
       <c r="H3" t="n">
-        <v>59.84292750636887</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>10.34429213768998</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>97.92875660729207</v>
       </c>
       <c r="T3" t="n">
-        <v>148.7670919953197</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.6258960018317</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27545,7 +27545,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>149.1048936520915</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27587,7 +27587,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>174.3310371106166</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -27599,13 +27599,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>266.0821545179421</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>226.9790703393712</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.5069884455807</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>398.0244380138589</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>131.952702467699</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>96.71329645856201</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -27754,10 +27754,10 @@
         <v>185.1804894248912</v>
       </c>
       <c r="V6" t="n">
-        <v>201.3775984086243</v>
+        <v>202.5930585573543</v>
       </c>
       <c r="W6" t="n">
-        <v>202.1194834014923</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -27779,22 +27779,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>147.7028849020468</v>
       </c>
       <c r="E7" t="n">
-        <v>150.3203538008215</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>152.7880013022424</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>155.3810738354398</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>137.9145673143257</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>104.9857721084449</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>270.9888127997949</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>398.0244380138589</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>398.0244380138589</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>129.9186491296886</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>122.4583072102715</v>
       </c>
       <c r="D9" t="n">
         <v>115.7281862028015</v>
@@ -27943,13 +27943,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>98.88892783977828</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>95.72339823053244</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>59.84292750636887</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
         <v>10.34429213768998</v>
@@ -27988,7 +27988,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>195.3773027531635</v>
+        <v>185.1804894248912</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>176.8413561505618</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>159.1856253856284</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>147.7028849020468</v>
       </c>
       <c r="E10" t="n">
-        <v>150.3203538008215</v>
+        <v>149.1048936520915</v>
       </c>
       <c r="F10" t="n">
-        <v>152.7880013022424</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>155.3810738354398</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>104.9857721084449</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>9.784820870564277</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="O2" t="n">
         <v>10.19681332827224</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>9.784820870564277</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>10.19681332827224</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="L4" t="n">
-        <v>9.784820870564277</v>
-      </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="O4" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>9.784820870564275</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="L5" t="n">
-        <v>9.784820870564277</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.784820870564275</v>
+      </c>
+      <c r="R5" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>10.19681332827224</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>9.784820870564277</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10.19681332827224</v>
-      </c>
-      <c r="O6" t="n">
-        <v>10.19681332827224</v>
       </c>
       <c r="P6" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>9.784820870564275</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9.784820870564277</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="L8" t="n">
-        <v>9.784820870564277</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="M8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="N8" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>9.784820870564277</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="N9" t="n">
-        <v>9.784820870564275</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,19 +35330,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>9.784820870564277</v>
       </c>
       <c r="M10" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="N10" t="n">
-        <v>9.784820870564275</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="O10" t="n">
         <v>10.19681332827224</v>
@@ -35418,7 +35418,7 @@
         <v>182.6583030270053</v>
       </c>
       <c r="M11" t="n">
-        <v>502.8900402148705</v>
+        <v>216.1982355590699</v>
       </c>
       <c r="N11" t="n">
         <v>221.5840161027801</v>
@@ -35427,13 +35427,13 @@
         <v>203.7801688762366</v>
       </c>
       <c r="P11" t="n">
-        <v>159.8076137090992</v>
+        <v>318.2209667728383</v>
       </c>
       <c r="Q11" t="n">
         <v>508.6715139236458</v>
       </c>
       <c r="R11" t="n">
-        <v>23.40467522995303</v>
+        <v>151.6831268220147</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>96.45574004950817</v>
       </c>
       <c r="L12" t="n">
-        <v>148.6467763467762</v>
+        <v>393.8202757527613</v>
       </c>
       <c r="M12" t="n">
-        <v>508.6715139236458</v>
+        <v>181.3824955789445</v>
       </c>
       <c r="N12" t="n">
         <v>192.0775961638102</v>
       </c>
       <c r="O12" t="n">
-        <v>494.5789055895673</v>
+        <v>166.6235588679062</v>
       </c>
       <c r="P12" t="n">
         <v>125.8211141389534</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.68659328765747</v>
+        <v>473.7574589480349</v>
       </c>
       <c r="R12" t="n">
         <v>88.40978130824502</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.463653918522219</v>
+        <v>70.12159698047816</v>
       </c>
       <c r="K13" t="n">
-        <v>39.60524300450321</v>
+        <v>247.969074909265</v>
       </c>
       <c r="L13" t="n">
-        <v>380.0658828160441</v>
+        <v>65.56074794385067</v>
       </c>
       <c r="M13" t="n">
         <v>416.1191180560539</v>
@@ -35582,7 +35582,7 @@
         <v>404.6618856814047</v>
       </c>
       <c r="O13" t="n">
-        <v>333.4495492699519</v>
+        <v>373.9329091754275</v>
       </c>
       <c r="P13" t="n">
         <v>303.3748063767822</v>
@@ -35658,19 +35658,19 @@
         <v>216.1982355590699</v>
       </c>
       <c r="N14" t="n">
-        <v>221.5840161027801</v>
+        <v>508.6715139236458</v>
       </c>
       <c r="O14" t="n">
-        <v>362.1935219399743</v>
+        <v>508.6715139236458</v>
       </c>
       <c r="P14" t="n">
         <v>159.8076137090992</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6715139236454</v>
+        <v>100.3018298455229</v>
       </c>
       <c r="R14" t="n">
-        <v>151.6831268220147</v>
+        <v>126.4873210956018</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>11.92786143106551</v>
       </c>
       <c r="J15" t="n">
         <v>283.8577890543983</v>
       </c>
       <c r="K15" t="n">
-        <v>508.6715139236454</v>
+        <v>96.45574004950817</v>
       </c>
       <c r="L15" t="n">
-        <v>403.6032289700665</v>
+        <v>148.6467763467762</v>
       </c>
       <c r="M15" t="n">
         <v>181.3824955789445</v>
@@ -35743,10 +35743,10 @@
         <v>166.6235588679062</v>
       </c>
       <c r="P15" t="n">
-        <v>125.8211141389534</v>
+        <v>370.9946135449391</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.68659328765747</v>
+        <v>473.7574589480349</v>
       </c>
       <c r="R15" t="n">
         <v>88.40978130824502</v>
@@ -35810,10 +35810,10 @@
         <v>247.969074909265</v>
       </c>
       <c r="L16" t="n">
-        <v>65.56074794384912</v>
+        <v>380.0658828160441</v>
       </c>
       <c r="M16" t="n">
-        <v>416.1191180560539</v>
+        <v>101.6139831838606</v>
       </c>
       <c r="N16" t="n">
         <v>404.6618856814047</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>76.27068619073029</v>
+        <v>406.3472790066184</v>
       </c>
       <c r="K17" t="n">
-        <v>135.0666540193071</v>
+        <v>271.8393714493419</v>
       </c>
       <c r="L17" t="n">
-        <v>588.1001066592248</v>
+        <v>182.6583030270053</v>
       </c>
       <c r="M17" t="n">
-        <v>453.8069649765211</v>
+        <v>216.1982355590699</v>
       </c>
       <c r="N17" t="n">
-        <v>588.1001066592248</v>
+        <v>221.5840161027801</v>
       </c>
       <c r="O17" t="n">
         <v>203.7801688762366</v>
@@ -35904,10 +35904,10 @@
         <v>159.8076137090992</v>
       </c>
       <c r="Q17" t="n">
-        <v>100.3018298455229</v>
+        <v>514.7406916136567</v>
       </c>
       <c r="R17" t="n">
-        <v>23.40467522995303</v>
+        <v>151.6831268220147</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>11.92786143106551</v>
       </c>
       <c r="J18" t="n">
-        <v>37.7280880699203</v>
+        <v>283.8577890543983</v>
       </c>
       <c r="K18" t="n">
         <v>96.45574004950817</v>
@@ -35971,22 +35971,22 @@
         <v>148.6467763467762</v>
       </c>
       <c r="M18" t="n">
-        <v>299.3386640575052</v>
+        <v>181.3824955789445</v>
       </c>
       <c r="N18" t="n">
         <v>192.0775961638102</v>
       </c>
       <c r="O18" t="n">
-        <v>588.1001066592248</v>
+        <v>166.6235588679062</v>
       </c>
       <c r="P18" t="n">
-        <v>588.1001066592248</v>
+        <v>370.9946135449388</v>
       </c>
       <c r="Q18" t="n">
-        <v>63.68659328765747</v>
+        <v>473.7574589480349</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.40978130824502</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36050,10 +36050,10 @@
         <v>380.0658828160441</v>
       </c>
       <c r="M19" t="n">
-        <v>416.1191180560539</v>
+        <v>416.1191180560554</v>
       </c>
       <c r="N19" t="n">
-        <v>404.6618856814031</v>
+        <v>404.6618856814047</v>
       </c>
       <c r="O19" t="n">
         <v>373.9329091754275</v>
@@ -36126,22 +36126,22 @@
         <v>135.0666540193071</v>
       </c>
       <c r="L20" t="n">
-        <v>588.1001066592248</v>
+        <v>182.6583030270053</v>
       </c>
       <c r="M20" t="n">
-        <v>325.5285133844593</v>
+        <v>216.1982355590699</v>
       </c>
       <c r="N20" t="n">
-        <v>588.1001066592248</v>
+        <v>221.5840161027801</v>
       </c>
       <c r="O20" t="n">
-        <v>203.7801688762366</v>
+        <v>242.336986172032</v>
       </c>
       <c r="P20" t="n">
-        <v>159.8076137090992</v>
+        <v>588.1001066592253</v>
       </c>
       <c r="Q20" t="n">
-        <v>100.3018298455229</v>
+        <v>514.7406916136567</v>
       </c>
       <c r="R20" t="n">
         <v>151.6831268220147</v>
@@ -36199,13 +36199,13 @@
         <v>11.92786143106551</v>
       </c>
       <c r="J21" t="n">
-        <v>37.7280880699203</v>
+        <v>283.8577890543983</v>
       </c>
       <c r="K21" t="n">
-        <v>96.45574004950817</v>
+        <v>341.6292394554935</v>
       </c>
       <c r="L21" t="n">
-        <v>588.1001066592248</v>
+        <v>148.6467763467762</v>
       </c>
       <c r="M21" t="n">
         <v>181.3824955789445</v>
@@ -36214,16 +36214,16 @@
         <v>192.0775961638102</v>
       </c>
       <c r="O21" t="n">
-        <v>588.1001066592248</v>
+        <v>166.6235588679062</v>
       </c>
       <c r="P21" t="n">
-        <v>254.6750833942713</v>
+        <v>125.8211141389534</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.68659328765747</v>
+        <v>473.7574589480349</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.40978130824502</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70.12159698047645</v>
+        <v>70.12159698047816</v>
       </c>
       <c r="K22" t="n">
         <v>247.969074909265</v>
@@ -36360,28 +36360,28 @@
         <v>76.27068619073029</v>
       </c>
       <c r="K23" t="n">
-        <v>135.0666540193071</v>
+        <v>767.7984993582206</v>
       </c>
       <c r="L23" t="n">
         <v>997.9329938294844</v>
       </c>
       <c r="M23" t="n">
-        <v>1093.648652937079</v>
+        <v>216.1982355590699</v>
       </c>
       <c r="N23" t="n">
-        <v>1075.285212554973</v>
+        <v>221.5840161027801</v>
       </c>
       <c r="O23" t="n">
-        <v>203.7801688762366</v>
+        <v>947.1021227011156</v>
       </c>
       <c r="P23" t="n">
-        <v>159.8076137090992</v>
+        <v>787.9586920598333</v>
       </c>
       <c r="Q23" t="n">
-        <v>514.7406916136567</v>
+        <v>304.5225564282613</v>
       </c>
       <c r="R23" t="n">
-        <v>86.23980372888242</v>
+        <v>23.40467522995303</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>11.92786143106551</v>
       </c>
       <c r="J24" t="n">
-        <v>37.7280880699203</v>
+        <v>283.8577890543983</v>
       </c>
       <c r="K24" t="n">
-        <v>96.45574004950817</v>
+        <v>341.6292394554936</v>
       </c>
       <c r="L24" t="n">
-        <v>872.5271303791285</v>
+        <v>148.6467763467762</v>
       </c>
       <c r="M24" t="n">
         <v>181.3824955789445</v>
@@ -36451,16 +36451,16 @@
         <v>192.0775961638102</v>
       </c>
       <c r="O24" t="n">
-        <v>444.4549136257048</v>
+        <v>166.6235588679062</v>
       </c>
       <c r="P24" t="n">
         <v>125.8211141389534</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.68659328765747</v>
+        <v>473.7574589480349</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.40978130824502</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>76.27068619073029</v>
+        <v>406.3472790066184</v>
       </c>
       <c r="K26" t="n">
-        <v>135.0666540193071</v>
+        <v>767.7984993582206</v>
       </c>
       <c r="L26" t="n">
-        <v>997.9329938294844</v>
+        <v>917.1356317314927</v>
       </c>
       <c r="M26" t="n">
-        <v>1086.574807254599</v>
+        <v>216.1982355590699</v>
       </c>
       <c r="N26" t="n">
-        <v>1075.285212554973</v>
+        <v>221.5840161027801</v>
       </c>
       <c r="O26" t="n">
-        <v>647.7527439703987</v>
+        <v>947.1021227011156</v>
       </c>
       <c r="P26" t="n">
         <v>159.8076137090992</v>
       </c>
       <c r="Q26" t="n">
-        <v>100.3018298455229</v>
+        <v>514.7406916136567</v>
       </c>
       <c r="R26" t="n">
-        <v>23.40467522995303</v>
+        <v>151.6831268220147</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>181.3824955789445</v>
       </c>
       <c r="N27" t="n">
-        <v>525.660876878041</v>
+        <v>437.2510955697957</v>
       </c>
       <c r="O27" t="n">
         <v>166.6235588679062</v>
@@ -36697,7 +36697,7 @@
         <v>473.7574589480349</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.40978130824502</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>406.3472790066184</v>
+        <v>76.27068619073029</v>
       </c>
       <c r="K29" t="n">
-        <v>767.7984993582206</v>
+        <v>689.4184717407834</v>
       </c>
       <c r="L29" t="n">
         <v>997.9329938294844</v>
@@ -36846,16 +36846,16 @@
         <v>221.5840161027801</v>
       </c>
       <c r="O29" t="n">
-        <v>203.7801688762366</v>
+        <v>947.1021227011156</v>
       </c>
       <c r="P29" t="n">
         <v>159.8076137090992</v>
       </c>
       <c r="Q29" t="n">
-        <v>306.888711645015</v>
+        <v>100.3018298455229</v>
       </c>
       <c r="R29" t="n">
-        <v>151.6831268220147</v>
+        <v>23.40467522995303</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>283.8577890543983</v>
       </c>
       <c r="K30" t="n">
-        <v>96.45574004950817</v>
+        <v>341.6292394554937</v>
       </c>
       <c r="L30" t="n">
         <v>148.6467763467762</v>
       </c>
       <c r="M30" t="n">
-        <v>925.0366419535525</v>
+        <v>181.3824955789445</v>
       </c>
       <c r="N30" t="n">
         <v>192.0775961638102</v>
@@ -36931,10 +36931,10 @@
         <v>125.8211141389534</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.68659328765747</v>
+        <v>473.7574589480349</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.40978130824502</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>76.27068619073029</v>
+        <v>406.3472790066184</v>
       </c>
       <c r="K32" t="n">
-        <v>135.0666540193071</v>
+        <v>767.7984993582206</v>
       </c>
       <c r="L32" t="n">
         <v>997.9329938294844</v>
       </c>
       <c r="M32" t="n">
-        <v>1086.574807254599</v>
+        <v>878.7228272859571</v>
       </c>
       <c r="N32" t="n">
-        <v>1075.285212554973</v>
+        <v>221.5840161027801</v>
       </c>
       <c r="O32" t="n">
-        <v>519.4742923783368</v>
+        <v>203.7801688762366</v>
       </c>
       <c r="P32" t="n">
         <v>159.8076137090992</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.3018298455229</v>
+        <v>514.7406916136567</v>
       </c>
       <c r="R32" t="n">
         <v>151.6831268220147</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>11.92786143106551</v>
       </c>
       <c r="J33" t="n">
-        <v>37.7280880699203</v>
+        <v>283.8577890543983</v>
       </c>
       <c r="K33" t="n">
-        <v>96.45574004950817</v>
+        <v>341.6292394554937</v>
       </c>
       <c r="L33" t="n">
-        <v>872.5271303791285</v>
+        <v>148.6467763467762</v>
       </c>
       <c r="M33" t="n">
         <v>181.3824955789445</v>
@@ -37165,13 +37165,13 @@
         <v>166.6235588679062</v>
       </c>
       <c r="P33" t="n">
-        <v>403.6524688967526</v>
+        <v>125.8211141389534</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.68659328765747</v>
+        <v>473.7574589480349</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.40978130824502</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>182.6583030270053</v>
       </c>
       <c r="M35" t="n">
-        <v>216.1982355590699</v>
+        <v>481.2494045811652</v>
       </c>
       <c r="N35" t="n">
         <v>221.5840161027801</v>
@@ -37323,13 +37323,13 @@
         <v>203.7801688762366</v>
       </c>
       <c r="P35" t="n">
-        <v>588.1001066592253</v>
+        <v>159.8076137090992</v>
       </c>
       <c r="Q35" t="n">
-        <v>223.2209160935641</v>
+        <v>514.7406916136567</v>
       </c>
       <c r="R35" t="n">
-        <v>151.6831268220147</v>
+        <v>23.40467522995303</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>11.92786143106551</v>
       </c>
       <c r="J36" t="n">
         <v>283.8577890543983</v>
@@ -37390,10 +37390,10 @@
         <v>96.45574004950817</v>
       </c>
       <c r="L36" t="n">
-        <v>497.5111730721687</v>
+        <v>148.6467763467762</v>
       </c>
       <c r="M36" t="n">
-        <v>588.1001066592253</v>
+        <v>181.3824955789445</v>
       </c>
       <c r="N36" t="n">
         <v>192.0775961638102</v>
@@ -37402,13 +37402,13 @@
         <v>166.6235588679062</v>
       </c>
       <c r="P36" t="n">
-        <v>125.8211141389534</v>
+        <v>370.9946135449388</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.68659328765747</v>
+        <v>473.7574589480349</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.40978130824502</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>76.27068619073029</v>
+        <v>406.3472790066184</v>
       </c>
       <c r="K38" t="n">
-        <v>135.0666540193071</v>
+        <v>271.8393714493405</v>
       </c>
       <c r="L38" t="n">
         <v>182.6583030270053</v>
       </c>
       <c r="M38" t="n">
-        <v>588.1001066592253</v>
+        <v>216.1982355590699</v>
       </c>
       <c r="N38" t="n">
         <v>221.5840161027801</v>
       </c>
       <c r="O38" t="n">
-        <v>588.1001066592253</v>
+        <v>203.7801688762366</v>
       </c>
       <c r="P38" t="n">
-        <v>413.1524284320724</v>
+        <v>159.8076137090992</v>
       </c>
       <c r="Q38" t="n">
-        <v>100.3018298455229</v>
+        <v>514.7406916136567</v>
       </c>
       <c r="R38" t="n">
-        <v>23.40467522995303</v>
+        <v>151.6831268220147</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>166.6235588679062</v>
       </c>
       <c r="P39" t="n">
-        <v>459.4043948531837</v>
+        <v>370.9946135449388</v>
       </c>
       <c r="Q39" t="n">
         <v>473.7574589480349</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.40978130824502</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>76.27068619073029</v>
+        <v>406.3472790066184</v>
       </c>
       <c r="K41" t="n">
         <v>135.0666540193071</v>
@@ -37791,16 +37791,16 @@
         <v>216.1982355590699</v>
       </c>
       <c r="N41" t="n">
-        <v>439.5031530300952</v>
+        <v>221.5840161027801</v>
       </c>
       <c r="O41" t="n">
         <v>203.7801688762366</v>
       </c>
       <c r="P41" t="n">
-        <v>508.6715139236458</v>
+        <v>159.8076137090992</v>
       </c>
       <c r="Q41" t="n">
-        <v>100.3018298455229</v>
+        <v>337.0082741714967</v>
       </c>
       <c r="R41" t="n">
         <v>151.6831268220147</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>11.92786143106551</v>
       </c>
       <c r="J42" t="n">
         <v>283.8577890543983</v>
       </c>
       <c r="K42" t="n">
-        <v>469.1873480704888</v>
+        <v>96.45574004950817</v>
       </c>
       <c r="L42" t="n">
-        <v>148.6467763467762</v>
+        <v>461.8431863573993</v>
       </c>
       <c r="M42" t="n">
         <v>181.3824955789445</v>
@@ -37873,16 +37873,16 @@
         <v>192.0775961638102</v>
       </c>
       <c r="O42" t="n">
-        <v>166.6235588679062</v>
+        <v>508.6715139236458</v>
       </c>
       <c r="P42" t="n">
-        <v>508.6715139236458</v>
+        <v>125.8211141389534</v>
       </c>
       <c r="Q42" t="n">
         <v>63.68659328765747</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.40978130824502</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>70.12159698047816</v>
       </c>
       <c r="K43" t="n">
-        <v>61.01339479044243</v>
+        <v>247.969074909265</v>
       </c>
       <c r="L43" t="n">
         <v>380.0658828160441</v>
       </c>
       <c r="M43" t="n">
-        <v>416.1191180560539</v>
+        <v>101.6139831838606</v>
       </c>
       <c r="N43" t="n">
         <v>404.6618856814047</v>
@@ -37958,7 +37958,7 @@
         <v>303.3748063767822</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.844077416994921</v>
+        <v>132.3935321703658</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>76.27068619073029</v>
+        <v>158.2314662071483</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3728974912748</v>
+        <v>135.0666540193071</v>
       </c>
       <c r="L44" t="n">
-        <v>182.6583030270053</v>
+        <v>508.6715139236462</v>
       </c>
       <c r="M44" t="n">
         <v>216.1982355590699</v>
       </c>
       <c r="N44" t="n">
-        <v>221.5840161027801</v>
+        <v>508.6715139236462</v>
       </c>
       <c r="O44" t="n">
-        <v>508.6715139236458</v>
+        <v>203.7801688762366</v>
       </c>
       <c r="P44" t="n">
-        <v>508.6715139236458</v>
+        <v>159.8076137090992</v>
       </c>
       <c r="Q44" t="n">
         <v>100.3018298455229</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>11.92786143106551</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>283.8577890543983</v>
+        <v>208.1548781902635</v>
       </c>
       <c r="K45" t="n">
         <v>96.45574004950817</v>
       </c>
       <c r="L45" t="n">
-        <v>508.6715139236458</v>
+        <v>508.6715139236462</v>
       </c>
       <c r="M45" t="n">
-        <v>182.1615045919904</v>
+        <v>181.3824955789445</v>
       </c>
       <c r="N45" t="n">
         <v>192.0775961638102</v>
@@ -38113,13 +38113,13 @@
         <v>166.6235588679062</v>
       </c>
       <c r="P45" t="n">
-        <v>508.6715139236458</v>
+        <v>508.6715139236462</v>
       </c>
       <c r="Q45" t="n">
         <v>63.68659328765747</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.40978130824502</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.463653918522219</v>
+        <v>70.12159698047816</v>
       </c>
       <c r="K46" t="n">
         <v>247.969074909265</v>
@@ -38183,7 +38183,7 @@
         <v>380.0658828160441</v>
       </c>
       <c r="M46" t="n">
-        <v>294.8213809991873</v>
+        <v>101.6139831838622</v>
       </c>
       <c r="N46" t="n">
         <v>404.6618856814047</v>
@@ -38195,7 +38195,7 @@
         <v>303.3748063767822</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.844077416994921</v>
+        <v>132.3935321703658</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
